--- a/Files/activePlans.xlsx
+++ b/Files/activePlans.xlsx
@@ -1,21 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\IT\Project\MVC_EduScanner\MVC_EduScanner\Files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A384752D-78C2-4CCA-AA98-D815056A2DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView/>
   </bookViews>
   <sheets>
     <sheet name="Active Plans" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1" fullPrecision="1"/>
 </workbook>
 </file>
 
@@ -3127,8 +3119,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -3152,4471 +3145,4163 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
-  <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4472C4"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B517"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.88671875" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1">
+      <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="0" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="0" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="0" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="0" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5">
+      <c r="A5" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="0" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+    <row r="7">
+      <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="0" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="8">
+      <c r="A8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="0" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="9">
+      <c r="A9" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="0" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="10">
+      <c r="A10" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="0" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="11">
+      <c r="A11" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="0" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="12">
+      <c r="A12" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="0" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="13">
+      <c r="A13" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="0" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="14">
+      <c r="A14" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="15">
+      <c r="A15" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="0" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="16">
+      <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="0" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="17">
+      <c r="A17" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="0" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+    <row r="18">
+      <c r="A18" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="0" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+    <row r="19">
+      <c r="A19" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="0" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="20">
+      <c r="A20" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+    <row r="21">
+      <c r="A21" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+    <row r="22">
+      <c r="A22" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+    <row r="23">
+      <c r="A23" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24">
+      <c r="A24" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+    <row r="25">
+      <c r="A25" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+    <row r="26">
+      <c r="A26" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="0" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+    <row r="27">
+      <c r="A27" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="0" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+    <row r="28">
+      <c r="A28" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="0" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+    <row r="29">
+      <c r="A29" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="0" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+    <row r="30">
+      <c r="A30" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="0" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="31">
+      <c r="A31" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="0" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32">
+      <c r="A32" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="0" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+    <row r="33">
+      <c r="A33" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="0" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="34">
+      <c r="A34" s="0" t="s">
         <v>66</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="0" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+    <row r="35">
+      <c r="A35" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="0" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+    <row r="36">
+      <c r="A36" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="0" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="37">
+      <c r="A37" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="0" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+    <row r="38">
+      <c r="A38" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="0" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="39">
+      <c r="A39" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="0" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="40">
+      <c r="A40" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="0" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="41">
+      <c r="A41" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="0" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+    <row r="42">
+      <c r="A42" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="0" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+    <row r="43">
+      <c r="A43" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="0" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+    <row r="44">
+      <c r="A44" s="0" t="s">
         <v>86</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="0" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+    <row r="45">
+      <c r="A45" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="0" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="46">
+      <c r="A46" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="0" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+    <row r="47">
+      <c r="A47" s="0" t="s">
         <v>92</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="0" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+    <row r="48">
+      <c r="A48" s="0" t="s">
         <v>94</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="0" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="49">
+      <c r="A49" s="0" t="s">
         <v>96</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="0" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+    <row r="50">
+      <c r="A50" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="0" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+    <row r="51">
+      <c r="A51" s="0" t="s">
         <v>100</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="0" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+    <row r="52">
+      <c r="A52" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="0" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+    <row r="53">
+      <c r="A53" s="0" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="0" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+    <row r="54">
+      <c r="A54" s="0" t="s">
         <v>106</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="0" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+    <row r="55">
+      <c r="A55" s="0" t="s">
         <v>108</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="0" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+    <row r="56">
+      <c r="A56" s="0" t="s">
         <v>110</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="0" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="57">
+      <c r="A57" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="0" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+    <row r="58">
+      <c r="A58" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="0" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+    <row r="59">
+      <c r="A59" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="0" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+    <row r="60">
+      <c r="A60" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="0" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+    <row r="61">
+      <c r="A61" s="0" t="s">
         <v>120</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="0" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+    <row r="62">
+      <c r="A62" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="0" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+    <row r="63">
+      <c r="A63" s="0" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="0" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+    <row r="64">
+      <c r="A64" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="0" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+    <row r="65">
+      <c r="A65" s="0" t="s">
         <v>128</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="0" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+    <row r="66">
+      <c r="A66" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="0" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+    <row r="67">
+      <c r="A67" s="0" t="s">
         <v>132</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="0" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="68">
+      <c r="A68" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="0" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="69">
+      <c r="A69" s="0" t="s">
         <v>136</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="0" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+    <row r="70">
+      <c r="A70" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="0" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+    <row r="71">
+      <c r="A71" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="0" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+    <row r="72">
+      <c r="A72" s="0" t="s">
         <v>142</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="0" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+    <row r="73">
+      <c r="A73" s="0" t="s">
         <v>144</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="0" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+    <row r="74">
+      <c r="A74" s="0" t="s">
         <v>146</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="0" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+    <row r="75">
+      <c r="A75" s="0" t="s">
         <v>148</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="0" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    <row r="76">
+      <c r="A76" s="0" t="s">
         <v>150</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="0" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+    <row r="77">
+      <c r="A77" s="0" t="s">
         <v>152</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="0" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+    <row r="78">
+      <c r="A78" s="0" t="s">
         <v>154</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="0" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+    <row r="79">
+      <c r="A79" s="0" t="s">
         <v>156</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="0" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+    <row r="80">
+      <c r="A80" s="0" t="s">
         <v>158</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="0" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+    <row r="81">
+      <c r="A81" s="0" t="s">
         <v>160</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="0" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+    <row r="82">
+      <c r="A82" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="0" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+    <row r="83">
+      <c r="A83" s="0" t="s">
         <v>164</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="0" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+    <row r="84">
+      <c r="A84" s="0" t="s">
         <v>166</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="0" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+    <row r="85">
+      <c r="A85" s="0" t="s">
         <v>168</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="0" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+    <row r="86">
+      <c r="A86" s="0" t="s">
         <v>170</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="0" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+    <row r="87">
+      <c r="A87" s="0" t="s">
         <v>172</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="0" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+    <row r="88">
+      <c r="A88" s="0" t="s">
         <v>174</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="0" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+    <row r="89">
+      <c r="A89" s="0" t="s">
         <v>176</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="0" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+    <row r="90">
+      <c r="A90" s="0" t="s">
         <v>178</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="0" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+    <row r="91">
+      <c r="A91" s="0" t="s">
         <v>180</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="0" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+    <row r="92">
+      <c r="A92" s="0" t="s">
         <v>182</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="0" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+    <row r="93">
+      <c r="A93" s="0" t="s">
         <v>184</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="0" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+    <row r="94">
+      <c r="A94" s="0" t="s">
         <v>186</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="0" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+    <row r="95">
+      <c r="A95" s="0" t="s">
         <v>188</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="0" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+    <row r="96">
+      <c r="A96" s="0" t="s">
         <v>190</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="0" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+    <row r="97">
+      <c r="A97" s="0" t="s">
         <v>192</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="0" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+    <row r="98">
+      <c r="A98" s="0" t="s">
         <v>194</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="0" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+    <row r="99">
+      <c r="A99" s="0" t="s">
         <v>196</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="0" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+    <row r="100">
+      <c r="A100" s="0" t="s">
         <v>198</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="0" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+    <row r="101">
+      <c r="A101" s="0" t="s">
         <v>200</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="0" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+    <row r="102">
+      <c r="A102" s="0" t="s">
         <v>202</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="0" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+    <row r="103">
+      <c r="A103" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="0" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+    <row r="104">
+      <c r="A104" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="0" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+    <row r="105">
+      <c r="A105" s="0" t="s">
         <v>208</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="0" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+    <row r="106">
+      <c r="A106" s="0" t="s">
         <v>210</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="0" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="107">
+      <c r="A107" s="0" t="s">
         <v>212</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="0" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+    <row r="108">
+      <c r="A108" s="0" t="s">
         <v>214</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="0" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+    <row r="109">
+      <c r="A109" s="0" t="s">
         <v>216</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="0" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+    <row r="110">
+      <c r="A110" s="0" t="s">
         <v>218</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="0" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="111">
+      <c r="A111" s="0" t="s">
         <v>220</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="0" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+    <row r="112">
+      <c r="A112" s="0" t="s">
         <v>222</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="0" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+    <row r="113">
+      <c r="A113" s="0" t="s">
         <v>224</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="0" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+    <row r="114">
+      <c r="A114" s="0" t="s">
         <v>226</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="0" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+    <row r="115">
+      <c r="A115" s="0" t="s">
         <v>228</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="0" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+    <row r="116">
+      <c r="A116" s="0" t="s">
         <v>230</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="0" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+    <row r="117">
+      <c r="A117" s="0" t="s">
         <v>232</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="0" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+    <row r="118">
+      <c r="A118" s="0" t="s">
         <v>234</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="0" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+    <row r="119">
+      <c r="A119" s="0" t="s">
         <v>236</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="0" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+    <row r="120">
+      <c r="A120" s="0" t="s">
         <v>238</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="0" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+    <row r="121">
+      <c r="A121" s="0" t="s">
         <v>240</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="0" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="122">
+      <c r="A122" s="0" t="s">
         <v>242</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="0" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+    <row r="123">
+      <c r="A123" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="0" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+    <row r="124">
+      <c r="A124" s="0" t="s">
         <v>246</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="0" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+    <row r="125">
+      <c r="A125" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="0" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A126" t="s">
+    <row r="126">
+      <c r="A126" s="0" t="s">
         <v>250</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="0" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A127" t="s">
+    <row r="127">
+      <c r="A127" s="0" t="s">
         <v>252</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="0" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A128" t="s">
+    <row r="128">
+      <c r="A128" s="0" t="s">
         <v>254</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="0" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A129" t="s">
+    <row r="129">
+      <c r="A129" s="0" t="s">
         <v>256</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="0" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A130" t="s">
+    <row r="130">
+      <c r="A130" s="0" t="s">
         <v>258</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="0" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A131" t="s">
+    <row r="131">
+      <c r="A131" s="0" t="s">
         <v>260</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="0" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A132" t="s">
+    <row r="132">
+      <c r="A132" s="0" t="s">
         <v>262</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="0" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A133" t="s">
+    <row r="133">
+      <c r="A133" s="0" t="s">
         <v>264</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="0" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A134" t="s">
+    <row r="134">
+      <c r="A134" s="0" t="s">
         <v>266</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="0" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A135" t="s">
+    <row r="135">
+      <c r="A135" s="0" t="s">
         <v>268</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="0" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A136" t="s">
+    <row r="136">
+      <c r="A136" s="0" t="s">
         <v>270</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="0" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A137" t="s">
+    <row r="137">
+      <c r="A137" s="0" t="s">
         <v>272</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="0" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A138" t="s">
+    <row r="138">
+      <c r="A138" s="0" t="s">
         <v>274</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="0" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A139" t="s">
+    <row r="139">
+      <c r="A139" s="0" t="s">
         <v>276</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="0" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A140" t="s">
+    <row r="140">
+      <c r="A140" s="0" t="s">
         <v>278</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="0" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A141" t="s">
+    <row r="141">
+      <c r="A141" s="0" t="s">
         <v>280</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="0" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A142" t="s">
+    <row r="142">
+      <c r="A142" s="0" t="s">
         <v>282</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="0" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A143" t="s">
+    <row r="143">
+      <c r="A143" s="0" t="s">
         <v>284</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="0" t="s">
         <v>285</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A144" t="s">
+    <row r="144">
+      <c r="A144" s="0" t="s">
         <v>286</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="0" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A145" t="s">
+    <row r="145">
+      <c r="A145" s="0" t="s">
         <v>288</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="0" t="s">
         <v>289</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A146" t="s">
+    <row r="146">
+      <c r="A146" s="0" t="s">
         <v>290</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="0" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A147" t="s">
+    <row r="147">
+      <c r="A147" s="0" t="s">
         <v>292</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="0" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A148" t="s">
+    <row r="148">
+      <c r="A148" s="0" t="s">
         <v>294</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="0" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A149" t="s">
+    <row r="149">
+      <c r="A149" s="0" t="s">
         <v>296</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="0" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A150" t="s">
+    <row r="150">
+      <c r="A150" s="0" t="s">
         <v>298</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="0" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A151" t="s">
+    <row r="151">
+      <c r="A151" s="0" t="s">
         <v>300</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="0" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A152" t="s">
+    <row r="152">
+      <c r="A152" s="0" t="s">
         <v>302</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="0" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A153" t="s">
+    <row r="153">
+      <c r="A153" s="0" t="s">
         <v>304</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="0" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A154" t="s">
+    <row r="154">
+      <c r="A154" s="0" t="s">
         <v>306</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="0" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A155" t="s">
+    <row r="155">
+      <c r="A155" s="0" t="s">
         <v>308</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="0" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
+    <row r="156">
+      <c r="A156" s="0" t="s">
         <v>310</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="0" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
+    <row r="157">
+      <c r="A157" s="0" t="s">
         <v>312</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="0" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
+    <row r="158">
+      <c r="A158" s="0" t="s">
         <v>314</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="0" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
+    <row r="159">
+      <c r="A159" s="0" t="s">
         <v>316</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="0" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
+    <row r="160">
+      <c r="A160" s="0" t="s">
         <v>318</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="0" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
+    <row r="161">
+      <c r="A161" s="0" t="s">
         <v>320</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="0" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
+    <row r="162">
+      <c r="A162" s="0" t="s">
         <v>322</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="0" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
+    <row r="163">
+      <c r="A163" s="0" t="s">
         <v>324</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="0" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
+    <row r="164">
+      <c r="A164" s="0" t="s">
         <v>326</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="0" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
+    <row r="165">
+      <c r="A165" s="0" t="s">
         <v>328</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="0" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
+    <row r="166">
+      <c r="A166" s="0" t="s">
         <v>330</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="0" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
+    <row r="167">
+      <c r="A167" s="0" t="s">
         <v>332</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="0" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
+    <row r="168">
+      <c r="A168" s="0" t="s">
         <v>334</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="0" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
+    <row r="169">
+      <c r="A169" s="0" t="s">
         <v>336</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="0" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A170" t="s">
+    <row r="170">
+      <c r="A170" s="0" t="s">
         <v>338</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="0" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A171" t="s">
+    <row r="171">
+      <c r="A171" s="0" t="s">
         <v>340</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="0" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A172" t="s">
+    <row r="172">
+      <c r="A172" s="0" t="s">
         <v>342</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="0" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A173" t="s">
+    <row r="173">
+      <c r="A173" s="0" t="s">
         <v>344</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="0" t="s">
         <v>345</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A174" t="s">
+    <row r="174">
+      <c r="A174" s="0" t="s">
         <v>346</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="0" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A175" t="s">
+    <row r="175">
+      <c r="A175" s="0" t="s">
         <v>348</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="0" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A176" t="s">
+    <row r="176">
+      <c r="A176" s="0" t="s">
         <v>350</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="0" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A177" t="s">
+    <row r="177">
+      <c r="A177" s="0" t="s">
         <v>352</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="0" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A178" t="s">
+    <row r="178">
+      <c r="A178" s="0" t="s">
         <v>354</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="0" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A179" t="s">
+    <row r="179">
+      <c r="A179" s="0" t="s">
         <v>356</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="0" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A180" t="s">
+    <row r="180">
+      <c r="A180" s="0" t="s">
         <v>358</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="0" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A181" t="s">
+    <row r="181">
+      <c r="A181" s="0" t="s">
         <v>360</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="0" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A182" t="s">
+    <row r="182">
+      <c r="A182" s="0" t="s">
         <v>362</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="0" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A183" t="s">
+    <row r="183">
+      <c r="A183" s="0" t="s">
         <v>364</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="0" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A184" t="s">
+    <row r="184">
+      <c r="A184" s="0" t="s">
         <v>366</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="0" t="s">
         <v>367</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A185" t="s">
+    <row r="185">
+      <c r="A185" s="0" t="s">
         <v>368</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="0" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A186" t="s">
+    <row r="186">
+      <c r="A186" s="0" t="s">
         <v>370</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="0" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A187" t="s">
+    <row r="187">
+      <c r="A187" s="0" t="s">
         <v>372</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="0" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A188" t="s">
+    <row r="188">
+      <c r="A188" s="0" t="s">
         <v>374</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="0" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A189" t="s">
+    <row r="189">
+      <c r="A189" s="0" t="s">
         <v>376</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="0" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A190" t="s">
+    <row r="190">
+      <c r="A190" s="0" t="s">
         <v>378</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="0" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A191" t="s">
+    <row r="191">
+      <c r="A191" s="0" t="s">
         <v>380</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="0" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A192" t="s">
+    <row r="192">
+      <c r="A192" s="0" t="s">
         <v>382</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="0" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
+    <row r="193">
+      <c r="A193" s="0" t="s">
         <v>384</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="0" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
+    <row r="194">
+      <c r="A194" s="0" t="s">
         <v>386</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="0" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
+    <row r="195">
+      <c r="A195" s="0" t="s">
         <v>388</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="0" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A196" t="s">
+    <row r="196">
+      <c r="A196" s="0" t="s">
         <v>390</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="0" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A197" t="s">
+    <row r="197">
+      <c r="A197" s="0" t="s">
         <v>392</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="0" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A198" t="s">
+    <row r="198">
+      <c r="A198" s="0" t="s">
         <v>394</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="0" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" t="s">
+    <row r="199">
+      <c r="A199" s="0" t="s">
         <v>396</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="0" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A200" t="s">
+    <row r="200">
+      <c r="A200" s="0" t="s">
         <v>398</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="0" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A201" t="s">
+    <row r="201">
+      <c r="A201" s="0" t="s">
         <v>400</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="0" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A202" t="s">
+    <row r="202">
+      <c r="A202" s="0" t="s">
         <v>402</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="0" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" t="s">
+    <row r="203">
+      <c r="A203" s="0" t="s">
         <v>404</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="0" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" t="s">
+    <row r="204">
+      <c r="A204" s="0" t="s">
         <v>406</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="0" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" t="s">
+    <row r="205">
+      <c r="A205" s="0" t="s">
         <v>408</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="0" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A206" t="s">
+    <row r="206">
+      <c r="A206" s="0" t="s">
         <v>410</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="0" t="s">
         <v>411</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" t="s">
+    <row r="207">
+      <c r="A207" s="0" t="s">
         <v>412</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="0" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A208" t="s">
+    <row r="208">
+      <c r="A208" s="0" t="s">
         <v>414</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="0" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" t="s">
+    <row r="209">
+      <c r="A209" s="0" t="s">
         <v>416</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="0" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" t="s">
+    <row r="210">
+      <c r="A210" s="0" t="s">
         <v>418</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="0" t="s">
         <v>419</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A211" t="s">
+    <row r="211">
+      <c r="A211" s="0" t="s">
         <v>420</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="0" t="s">
         <v>421</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
+    <row r="212">
+      <c r="A212" s="0" t="s">
         <v>422</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="0" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
+    <row r="213">
+      <c r="A213" s="0" t="s">
         <v>424</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="0" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
+    <row r="214">
+      <c r="A214" s="0" t="s">
         <v>426</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="0" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
+    <row r="215">
+      <c r="A215" s="0" t="s">
         <v>428</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="0" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
+    <row r="216">
+      <c r="A216" s="0" t="s">
         <v>430</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="0" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
+    <row r="217">
+      <c r="A217" s="0" t="s">
         <v>432</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="0" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
+    <row r="218">
+      <c r="A218" s="0" t="s">
         <v>434</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="0" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
+    <row r="219">
+      <c r="A219" s="0" t="s">
         <v>436</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="0" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
+    <row r="220">
+      <c r="A220" s="0" t="s">
         <v>438</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="0" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
+    <row r="221">
+      <c r="A221" s="0" t="s">
         <v>440</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="0" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
+    <row r="222">
+      <c r="A222" s="0" t="s">
         <v>442</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="0" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
+    <row r="223">
+      <c r="A223" s="0" t="s">
         <v>444</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="0" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
+    <row r="224">
+      <c r="A224" s="0" t="s">
         <v>446</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="0" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
+    <row r="225">
+      <c r="A225" s="0" t="s">
         <v>448</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="0" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A226" t="s">
+    <row r="226">
+      <c r="A226" s="0" t="s">
         <v>450</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="0" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A227" t="s">
+    <row r="227">
+      <c r="A227" s="0" t="s">
         <v>452</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="0" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A228" t="s">
+    <row r="228">
+      <c r="A228" s="0" t="s">
         <v>454</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="0" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A229" t="s">
+    <row r="229">
+      <c r="A229" s="0" t="s">
         <v>456</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="0" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A230" t="s">
+    <row r="230">
+      <c r="A230" s="0" t="s">
         <v>458</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="0" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A231" t="s">
+    <row r="231">
+      <c r="A231" s="0" t="s">
         <v>460</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="0" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A232" t="s">
+    <row r="232">
+      <c r="A232" s="0" t="s">
         <v>462</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="0" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A233" t="s">
+    <row r="233">
+      <c r="A233" s="0" t="s">
         <v>464</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="0" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A234" t="s">
+    <row r="234">
+      <c r="A234" s="0" t="s">
         <v>466</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="0" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A235" t="s">
+    <row r="235">
+      <c r="A235" s="0" t="s">
         <v>468</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="0" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A236" t="s">
+    <row r="236">
+      <c r="A236" s="0" t="s">
         <v>470</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="0" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A237" t="s">
+    <row r="237">
+      <c r="A237" s="0" t="s">
         <v>472</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="0" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A238" t="s">
+    <row r="238">
+      <c r="A238" s="0" t="s">
         <v>474</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="0" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A239" t="s">
+    <row r="239">
+      <c r="A239" s="0" t="s">
         <v>476</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="0" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A240" t="s">
+    <row r="240">
+      <c r="A240" s="0" t="s">
         <v>478</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="0" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A241" t="s">
+    <row r="241">
+      <c r="A241" s="0" t="s">
         <v>480</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="0" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A242" t="s">
+    <row r="242">
+      <c r="A242" s="0" t="s">
         <v>482</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="0" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A243" t="s">
+    <row r="243">
+      <c r="A243" s="0" t="s">
         <v>484</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="0" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A244" t="s">
+    <row r="244">
+      <c r="A244" s="0" t="s">
         <v>486</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="0" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A245" t="s">
+    <row r="245">
+      <c r="A245" s="0" t="s">
         <v>488</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="0" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A246" t="s">
+    <row r="246">
+      <c r="A246" s="0" t="s">
         <v>490</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="0" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A247" t="s">
+    <row r="247">
+      <c r="A247" s="0" t="s">
         <v>492</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="0" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A248" t="s">
+    <row r="248">
+      <c r="A248" s="0" t="s">
         <v>494</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="0" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A249" t="s">
+    <row r="249">
+      <c r="A249" s="0" t="s">
         <v>496</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="0" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A250" t="s">
+    <row r="250">
+      <c r="A250" s="0" t="s">
         <v>498</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="0" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A251" t="s">
+    <row r="251">
+      <c r="A251" s="0" t="s">
         <v>500</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="0" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A252" t="s">
+    <row r="252">
+      <c r="A252" s="0" t="s">
         <v>502</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="0" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A253" t="s">
+    <row r="253">
+      <c r="A253" s="0" t="s">
         <v>504</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="0" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A254" t="s">
+    <row r="254">
+      <c r="A254" s="0" t="s">
         <v>506</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="0" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A255" t="s">
+    <row r="255">
+      <c r="A255" s="0" t="s">
         <v>508</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="0" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A256" t="s">
+    <row r="256">
+      <c r="A256" s="0" t="s">
         <v>510</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="0" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A257" t="s">
+    <row r="257">
+      <c r="A257" s="0" t="s">
         <v>512</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="0" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A258" t="s">
+    <row r="258">
+      <c r="A258" s="0" t="s">
         <v>514</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="0" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A259" t="s">
+    <row r="259">
+      <c r="A259" s="0" t="s">
         <v>516</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="0" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A260" t="s">
+    <row r="260">
+      <c r="A260" s="0" t="s">
         <v>518</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="0" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A261" t="s">
+    <row r="261">
+      <c r="A261" s="0" t="s">
         <v>520</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="0" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A262" t="s">
+    <row r="262">
+      <c r="A262" s="0" t="s">
         <v>522</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="0" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A263" t="s">
+    <row r="263">
+      <c r="A263" s="0" t="s">
         <v>524</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="0" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A264" t="s">
+    <row r="264">
+      <c r="A264" s="0" t="s">
         <v>526</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="0" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A265" t="s">
+    <row r="265">
+      <c r="A265" s="0" t="s">
         <v>528</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="0" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A266" t="s">
+    <row r="266">
+      <c r="A266" s="0" t="s">
         <v>530</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="0" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A267" t="s">
+    <row r="267">
+      <c r="A267" s="0" t="s">
         <v>532</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="0" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A268" t="s">
+    <row r="268">
+      <c r="A268" s="0" t="s">
         <v>534</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="0" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A269" t="s">
+    <row r="269">
+      <c r="A269" s="0" t="s">
         <v>536</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="0" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A270" t="s">
+    <row r="270">
+      <c r="A270" s="0" t="s">
         <v>538</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="0" t="s">
         <v>539</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A271" t="s">
+    <row r="271">
+      <c r="A271" s="0" t="s">
         <v>540</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="0" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A272" t="s">
+    <row r="272">
+      <c r="A272" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="0" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A273" t="s">
+    <row r="273">
+      <c r="A273" s="0" t="s">
         <v>544</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="0" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A274" t="s">
+    <row r="274">
+      <c r="A274" s="0" t="s">
         <v>546</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="0" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A275" t="s">
+    <row r="275">
+      <c r="A275" s="0" t="s">
         <v>548</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="0" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A276" t="s">
+    <row r="276">
+      <c r="A276" s="0" t="s">
         <v>550</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="0" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A277" t="s">
+    <row r="277">
+      <c r="A277" s="0" t="s">
         <v>552</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="0" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A278" t="s">
+    <row r="278">
+      <c r="A278" s="0" t="s">
         <v>554</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="0" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A279" t="s">
+    <row r="279">
+      <c r="A279" s="0" t="s">
         <v>556</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="0" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A280" t="s">
+    <row r="280">
+      <c r="A280" s="0" t="s">
         <v>558</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="0" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A281" t="s">
+    <row r="281">
+      <c r="A281" s="0" t="s">
         <v>560</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="0" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A282" t="s">
+    <row r="282">
+      <c r="A282" s="0" t="s">
         <v>562</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="0" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
+    <row r="283">
+      <c r="A283" s="0" t="s">
         <v>564</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="0" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A284" t="s">
+    <row r="284">
+      <c r="A284" s="0" t="s">
         <v>566</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="0" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A285" t="s">
+    <row r="285">
+      <c r="A285" s="0" t="s">
         <v>568</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="0" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A286" t="s">
+    <row r="286">
+      <c r="A286" s="0" t="s">
         <v>570</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="0" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A287" t="s">
+    <row r="287">
+      <c r="A287" s="0" t="s">
         <v>572</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="0" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A288" t="s">
+    <row r="288">
+      <c r="A288" s="0" t="s">
         <v>574</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="0" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A289" t="s">
+    <row r="289">
+      <c r="A289" s="0" t="s">
         <v>576</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="0" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A290" t="s">
+    <row r="290">
+      <c r="A290" s="0" t="s">
         <v>578</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="0" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A291" t="s">
+    <row r="291">
+      <c r="A291" s="0" t="s">
         <v>580</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="0" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A292" t="s">
+    <row r="292">
+      <c r="A292" s="0" t="s">
         <v>582</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="0" t="s">
         <v>583</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A293" t="s">
+    <row r="293">
+      <c r="A293" s="0" t="s">
         <v>584</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="0" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A294" t="s">
+    <row r="294">
+      <c r="A294" s="0" t="s">
         <v>586</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="0" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A295" t="s">
+    <row r="295">
+      <c r="A295" s="0" t="s">
         <v>588</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="0" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A296" t="s">
+    <row r="296">
+      <c r="A296" s="0" t="s">
         <v>590</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="0" t="s">
         <v>591</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A297" t="s">
+    <row r="297">
+      <c r="A297" s="0" t="s">
         <v>592</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="0" t="s">
         <v>593</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A298" t="s">
+    <row r="298">
+      <c r="A298" s="0" t="s">
         <v>594</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="0" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A299" t="s">
+    <row r="299">
+      <c r="A299" s="0" t="s">
         <v>596</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="0" t="s">
         <v>597</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A300" t="s">
+    <row r="300">
+      <c r="A300" s="0" t="s">
         <v>598</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="0" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A301" t="s">
+    <row r="301">
+      <c r="A301" s="0" t="s">
         <v>600</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="0" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A302" t="s">
+    <row r="302">
+      <c r="A302" s="0" t="s">
         <v>602</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="0" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A303" t="s">
+    <row r="303">
+      <c r="A303" s="0" t="s">
         <v>604</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="0" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A304" t="s">
+    <row r="304">
+      <c r="A304" s="0" t="s">
         <v>606</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="0" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A305" t="s">
+    <row r="305">
+      <c r="A305" s="0" t="s">
         <v>608</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="0" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A306" t="s">
+    <row r="306">
+      <c r="A306" s="0" t="s">
         <v>610</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="0" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A307" t="s">
+    <row r="307">
+      <c r="A307" s="0" t="s">
         <v>612</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="0" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A308" t="s">
+    <row r="308">
+      <c r="A308" s="0" t="s">
         <v>614</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="0" t="s">
         <v>615</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A309" t="s">
+    <row r="309">
+      <c r="A309" s="0" t="s">
         <v>616</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="0" t="s">
         <v>617</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A310" t="s">
+    <row r="310">
+      <c r="A310" s="0" t="s">
         <v>618</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="0" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A311" t="s">
+    <row r="311">
+      <c r="A311" s="0" t="s">
         <v>620</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="0" t="s">
         <v>621</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A312" t="s">
+    <row r="312">
+      <c r="A312" s="0" t="s">
         <v>622</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="0" t="s">
         <v>623</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A313" t="s">
+    <row r="313">
+      <c r="A313" s="0" t="s">
         <v>624</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="0" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A314" t="s">
+    <row r="314">
+      <c r="A314" s="0" t="s">
         <v>626</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="0" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A315" t="s">
+    <row r="315">
+      <c r="A315" s="0" t="s">
         <v>628</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="0" t="s">
         <v>629</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A316" t="s">
+    <row r="316">
+      <c r="A316" s="0" t="s">
         <v>630</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="0" t="s">
         <v>631</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A317" t="s">
+    <row r="317">
+      <c r="A317" s="0" t="s">
         <v>632</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="0" t="s">
         <v>633</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A318" t="s">
+    <row r="318">
+      <c r="A318" s="0" t="s">
         <v>634</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="0" t="s">
         <v>635</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A319" t="s">
+    <row r="319">
+      <c r="A319" s="0" t="s">
         <v>636</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="0" t="s">
         <v>637</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A320" t="s">
+    <row r="320">
+      <c r="A320" s="0" t="s">
         <v>638</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="0" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A321" t="s">
+    <row r="321">
+      <c r="A321" s="0" t="s">
         <v>640</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="0" t="s">
         <v>641</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A322" t="s">
+    <row r="322">
+      <c r="A322" s="0" t="s">
         <v>642</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="0" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A323" t="s">
+    <row r="323">
+      <c r="A323" s="0" t="s">
         <v>644</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="0" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A324" t="s">
+    <row r="324">
+      <c r="A324" s="0" t="s">
         <v>646</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="0" t="s">
         <v>647</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A325" t="s">
+    <row r="325">
+      <c r="A325" s="0" t="s">
         <v>648</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="0" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A326" t="s">
+    <row r="326">
+      <c r="A326" s="0" t="s">
         <v>650</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="0" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A327" t="s">
+    <row r="327">
+      <c r="A327" s="0" t="s">
         <v>652</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="0" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A328" t="s">
+    <row r="328">
+      <c r="A328" s="0" t="s">
         <v>654</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="0" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A329" t="s">
+    <row r="329">
+      <c r="A329" s="0" t="s">
         <v>656</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="0" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A330" t="s">
+    <row r="330">
+      <c r="A330" s="0" t="s">
         <v>658</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="0" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A331" t="s">
+    <row r="331">
+      <c r="A331" s="0" t="s">
         <v>660</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="0" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A332" t="s">
+    <row r="332">
+      <c r="A332" s="0" t="s">
         <v>662</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="0" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A333" t="s">
+    <row r="333">
+      <c r="A333" s="0" t="s">
         <v>664</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="0" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A334" t="s">
+    <row r="334">
+      <c r="A334" s="0" t="s">
         <v>666</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="0" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A335" t="s">
+    <row r="335">
+      <c r="A335" s="0" t="s">
         <v>668</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="0" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A336" t="s">
+    <row r="336">
+      <c r="A336" s="0" t="s">
         <v>670</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="0" t="s">
         <v>671</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A337" t="s">
+    <row r="337">
+      <c r="A337" s="0" t="s">
         <v>672</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="0" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A338" t="s">
+    <row r="338">
+      <c r="A338" s="0" t="s">
         <v>674</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="0" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A339" t="s">
+    <row r="339">
+      <c r="A339" s="0" t="s">
         <v>676</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="0" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A340" t="s">
+    <row r="340">
+      <c r="A340" s="0" t="s">
         <v>678</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="0" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A341" t="s">
+    <row r="341">
+      <c r="A341" s="0" t="s">
         <v>680</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="0" t="s">
         <v>681</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A342" t="s">
+    <row r="342">
+      <c r="A342" s="0" t="s">
         <v>682</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="0" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A343" t="s">
+    <row r="343">
+      <c r="A343" s="0" t="s">
         <v>684</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="0" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
+    <row r="344">
+      <c r="A344" s="0" t="s">
         <v>686</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="0" t="s">
         <v>687</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
+    <row r="345">
+      <c r="A345" s="0" t="s">
         <v>688</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="0" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A346" t="s">
+    <row r="346">
+      <c r="A346" s="0" t="s">
         <v>690</v>
       </c>
-      <c r="B346" t="s">
+      <c r="B346" s="0" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A347" t="s">
+    <row r="347">
+      <c r="A347" s="0" t="s">
         <v>692</v>
       </c>
-      <c r="B347" t="s">
+      <c r="B347" s="0" t="s">
         <v>693</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A348" t="s">
+    <row r="348">
+      <c r="A348" s="0" t="s">
         <v>694</v>
       </c>
-      <c r="B348" t="s">
+      <c r="B348" s="0" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A349" t="s">
+    <row r="349">
+      <c r="A349" s="0" t="s">
         <v>696</v>
       </c>
-      <c r="B349" t="s">
+      <c r="B349" s="0" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A350" t="s">
+    <row r="350">
+      <c r="A350" s="0" t="s">
         <v>698</v>
       </c>
-      <c r="B350" t="s">
+      <c r="B350" s="0" t="s">
         <v>699</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A351" t="s">
+    <row r="351">
+      <c r="A351" s="0" t="s">
         <v>700</v>
       </c>
-      <c r="B351" t="s">
+      <c r="B351" s="0" t="s">
         <v>701</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A352" t="s">
+    <row r="352">
+      <c r="A352" s="0" t="s">
         <v>702</v>
       </c>
-      <c r="B352" t="s">
+      <c r="B352" s="0" t="s">
         <v>703</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A353" t="s">
+    <row r="353">
+      <c r="A353" s="0" t="s">
         <v>704</v>
       </c>
-      <c r="B353" t="s">
+      <c r="B353" s="0" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A354" t="s">
+    <row r="354">
+      <c r="A354" s="0" t="s">
         <v>706</v>
       </c>
-      <c r="B354" t="s">
+      <c r="B354" s="0" t="s">
         <v>707</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A355" t="s">
+    <row r="355">
+      <c r="A355" s="0" t="s">
         <v>708</v>
       </c>
-      <c r="B355" t="s">
+      <c r="B355" s="0" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A356" t="s">
+    <row r="356">
+      <c r="A356" s="0" t="s">
         <v>710</v>
       </c>
-      <c r="B356" t="s">
+      <c r="B356" s="0" t="s">
         <v>711</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A357" t="s">
+    <row r="357">
+      <c r="A357" s="0" t="s">
         <v>712</v>
       </c>
-      <c r="B357" t="s">
+      <c r="B357" s="0" t="s">
         <v>713</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A358" t="s">
+    <row r="358">
+      <c r="A358" s="0" t="s">
         <v>714</v>
       </c>
-      <c r="B358" t="s">
+      <c r="B358" s="0" t="s">
         <v>715</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A359" t="s">
+    <row r="359">
+      <c r="A359" s="0" t="s">
         <v>716</v>
       </c>
-      <c r="B359" t="s">
+      <c r="B359" s="0" t="s">
         <v>717</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A360" t="s">
+    <row r="360">
+      <c r="A360" s="0" t="s">
         <v>718</v>
       </c>
-      <c r="B360" t="s">
+      <c r="B360" s="0" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A361" t="s">
+    <row r="361">
+      <c r="A361" s="0" t="s">
         <v>720</v>
       </c>
-      <c r="B361" t="s">
+      <c r="B361" s="0" t="s">
         <v>721</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A362" t="s">
+    <row r="362">
+      <c r="A362" s="0" t="s">
         <v>722</v>
       </c>
-      <c r="B362" t="s">
+      <c r="B362" s="0" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A363" t="s">
+    <row r="363">
+      <c r="A363" s="0" t="s">
         <v>724</v>
       </c>
-      <c r="B363" t="s">
+      <c r="B363" s="0" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A364" t="s">
+    <row r="364">
+      <c r="A364" s="0" t="s">
         <v>726</v>
       </c>
-      <c r="B364" t="s">
+      <c r="B364" s="0" t="s">
         <v>727</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A365" t="s">
+    <row r="365">
+      <c r="A365" s="0" t="s">
         <v>728</v>
       </c>
-      <c r="B365" t="s">
+      <c r="B365" s="0" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A366" t="s">
+    <row r="366">
+      <c r="A366" s="0" t="s">
         <v>730</v>
       </c>
-      <c r="B366" t="s">
+      <c r="B366" s="0" t="s">
         <v>731</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A367" t="s">
+    <row r="367">
+      <c r="A367" s="0" t="s">
         <v>732</v>
       </c>
-      <c r="B367" t="s">
+      <c r="B367" s="0" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A368" t="s">
+    <row r="368">
+      <c r="A368" s="0" t="s">
         <v>734</v>
       </c>
-      <c r="B368" t="s">
+      <c r="B368" s="0" t="s">
         <v>735</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A369" t="s">
+    <row r="369">
+      <c r="A369" s="0" t="s">
         <v>736</v>
       </c>
-      <c r="B369" t="s">
+      <c r="B369" s="0" t="s">
         <v>737</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A370" t="s">
+    <row r="370">
+      <c r="A370" s="0" t="s">
         <v>738</v>
       </c>
-      <c r="B370" t="s">
+      <c r="B370" s="0" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A371" t="s">
+    <row r="371">
+      <c r="A371" s="0" t="s">
         <v>740</v>
       </c>
-      <c r="B371" t="s">
+      <c r="B371" s="0" t="s">
         <v>741</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A372" t="s">
+    <row r="372">
+      <c r="A372" s="0" t="s">
         <v>742</v>
       </c>
-      <c r="B372" t="s">
+      <c r="B372" s="0" t="s">
         <v>743</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A373" t="s">
+    <row r="373">
+      <c r="A373" s="0" t="s">
         <v>744</v>
       </c>
-      <c r="B373" t="s">
+      <c r="B373" s="0" t="s">
         <v>745</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A374" t="s">
+    <row r="374">
+      <c r="A374" s="0" t="s">
         <v>746</v>
       </c>
-      <c r="B374" t="s">
+      <c r="B374" s="0" t="s">
         <v>747</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A375" t="s">
+    <row r="375">
+      <c r="A375" s="0" t="s">
         <v>748</v>
       </c>
-      <c r="B375" t="s">
+      <c r="B375" s="0" t="s">
         <v>749</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A376" t="s">
+    <row r="376">
+      <c r="A376" s="0" t="s">
         <v>750</v>
       </c>
-      <c r="B376" t="s">
+      <c r="B376" s="0" t="s">
         <v>751</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A377" t="s">
+    <row r="377">
+      <c r="A377" s="0" t="s">
         <v>752</v>
       </c>
-      <c r="B377" t="s">
+      <c r="B377" s="0" t="s">
         <v>753</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A378" t="s">
+    <row r="378">
+      <c r="A378" s="0" t="s">
         <v>754</v>
       </c>
-      <c r="B378" t="s">
+      <c r="B378" s="0" t="s">
         <v>755</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A379" t="s">
+    <row r="379">
+      <c r="A379" s="0" t="s">
         <v>756</v>
       </c>
-      <c r="B379" t="s">
+      <c r="B379" s="0" t="s">
         <v>757</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A380" t="s">
+    <row r="380">
+      <c r="A380" s="0" t="s">
         <v>758</v>
       </c>
-      <c r="B380" t="s">
+      <c r="B380" s="0" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A381" t="s">
+    <row r="381">
+      <c r="A381" s="0" t="s">
         <v>760</v>
       </c>
-      <c r="B381" t="s">
+      <c r="B381" s="0" t="s">
         <v>761</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A382" t="s">
+    <row r="382">
+      <c r="A382" s="0" t="s">
         <v>762</v>
       </c>
-      <c r="B382" t="s">
+      <c r="B382" s="0" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A383" t="s">
+    <row r="383">
+      <c r="A383" s="0" t="s">
         <v>764</v>
       </c>
-      <c r="B383" t="s">
+      <c r="B383" s="0" t="s">
         <v>765</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A384" t="s">
+    <row r="384">
+      <c r="A384" s="0" t="s">
         <v>766</v>
       </c>
-      <c r="B384" t="s">
+      <c r="B384" s="0" t="s">
         <v>767</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A385" t="s">
+    <row r="385">
+      <c r="A385" s="0" t="s">
         <v>768</v>
       </c>
-      <c r="B385" t="s">
+      <c r="B385" s="0" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A386" t="s">
+    <row r="386">
+      <c r="A386" s="0" t="s">
         <v>770</v>
       </c>
-      <c r="B386" t="s">
+      <c r="B386" s="0" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A387" t="s">
+    <row r="387">
+      <c r="A387" s="0" t="s">
         <v>772</v>
       </c>
-      <c r="B387" t="s">
+      <c r="B387" s="0" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A388" t="s">
+    <row r="388">
+      <c r="A388" s="0" t="s">
         <v>774</v>
       </c>
-      <c r="B388" t="s">
+      <c r="B388" s="0" t="s">
         <v>775</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A389" t="s">
+    <row r="389">
+      <c r="A389" s="0" t="s">
         <v>776</v>
       </c>
-      <c r="B389" t="s">
+      <c r="B389" s="0" t="s">
         <v>777</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A390" t="s">
+    <row r="390">
+      <c r="A390" s="0" t="s">
         <v>778</v>
       </c>
-      <c r="B390" t="s">
+      <c r="B390" s="0" t="s">
         <v>779</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A391" t="s">
+    <row r="391">
+      <c r="A391" s="0" t="s">
         <v>780</v>
       </c>
-      <c r="B391" t="s">
+      <c r="B391" s="0" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A392" t="s">
+    <row r="392">
+      <c r="A392" s="0" t="s">
         <v>782</v>
       </c>
-      <c r="B392" t="s">
+      <c r="B392" s="0" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A393" t="s">
+    <row r="393">
+      <c r="A393" s="0" t="s">
         <v>784</v>
       </c>
-      <c r="B393" t="s">
+      <c r="B393" s="0" t="s">
         <v>785</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A394" t="s">
+    <row r="394">
+      <c r="A394" s="0" t="s">
         <v>786</v>
       </c>
-      <c r="B394" t="s">
+      <c r="B394" s="0" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A395" t="s">
+    <row r="395">
+      <c r="A395" s="0" t="s">
         <v>788</v>
       </c>
-      <c r="B395" t="s">
+      <c r="B395" s="0" t="s">
         <v>789</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A396" t="s">
+    <row r="396">
+      <c r="A396" s="0" t="s">
         <v>790</v>
       </c>
-      <c r="B396" t="s">
+      <c r="B396" s="0" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A397" t="s">
+    <row r="397">
+      <c r="A397" s="0" t="s">
         <v>792</v>
       </c>
-      <c r="B397" t="s">
+      <c r="B397" s="0" t="s">
         <v>793</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A398" t="s">
+    <row r="398">
+      <c r="A398" s="0" t="s">
         <v>794</v>
       </c>
-      <c r="B398" t="s">
+      <c r="B398" s="0" t="s">
         <v>795</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A399" t="s">
+    <row r="399">
+      <c r="A399" s="0" t="s">
         <v>796</v>
       </c>
-      <c r="B399" t="s">
+      <c r="B399" s="0" t="s">
         <v>797</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A400" t="s">
+    <row r="400">
+      <c r="A400" s="0" t="s">
         <v>798</v>
       </c>
-      <c r="B400" t="s">
+      <c r="B400" s="0" t="s">
         <v>799</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A401" t="s">
+    <row r="401">
+      <c r="A401" s="0" t="s">
         <v>800</v>
       </c>
-      <c r="B401" t="s">
+      <c r="B401" s="0" t="s">
         <v>801</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A402" t="s">
+    <row r="402">
+      <c r="A402" s="0" t="s">
         <v>802</v>
       </c>
-      <c r="B402" t="s">
+      <c r="B402" s="0" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A403" t="s">
+    <row r="403">
+      <c r="A403" s="0" t="s">
         <v>804</v>
       </c>
-      <c r="B403" t="s">
+      <c r="B403" s="0" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A404" t="s">
+    <row r="404">
+      <c r="A404" s="0" t="s">
         <v>806</v>
       </c>
-      <c r="B404" t="s">
+      <c r="B404" s="0" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A405" t="s">
+    <row r="405">
+      <c r="A405" s="0" t="s">
         <v>808</v>
       </c>
-      <c r="B405" t="s">
+      <c r="B405" s="0" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A406" t="s">
+    <row r="406">
+      <c r="A406" s="0" t="s">
         <v>810</v>
       </c>
-      <c r="B406" t="s">
+      <c r="B406" s="0" t="s">
         <v>811</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A407" t="s">
+    <row r="407">
+      <c r="A407" s="0" t="s">
         <v>812</v>
       </c>
-      <c r="B407" t="s">
+      <c r="B407" s="0" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A408" t="s">
+    <row r="408">
+      <c r="A408" s="0" t="s">
         <v>814</v>
       </c>
-      <c r="B408" t="s">
+      <c r="B408" s="0" t="s">
         <v>815</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A409" t="s">
+    <row r="409">
+      <c r="A409" s="0" t="s">
         <v>816</v>
       </c>
-      <c r="B409" t="s">
+      <c r="B409" s="0" t="s">
         <v>817</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A410" t="s">
+    <row r="410">
+      <c r="A410" s="0" t="s">
         <v>818</v>
       </c>
-      <c r="B410" t="s">
+      <c r="B410" s="0" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A411" t="s">
+    <row r="411">
+      <c r="A411" s="0" t="s">
         <v>820</v>
       </c>
-      <c r="B411" t="s">
+      <c r="B411" s="0" t="s">
         <v>821</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A412" t="s">
+    <row r="412">
+      <c r="A412" s="0" t="s">
         <v>822</v>
       </c>
-      <c r="B412" t="s">
+      <c r="B412" s="0" t="s">
         <v>823</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A413" t="s">
+    <row r="413">
+      <c r="A413" s="0" t="s">
         <v>824</v>
       </c>
-      <c r="B413" t="s">
+      <c r="B413" s="0" t="s">
         <v>825</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A414" t="s">
+    <row r="414">
+      <c r="A414" s="0" t="s">
         <v>826</v>
       </c>
-      <c r="B414" t="s">
+      <c r="B414" s="0" t="s">
         <v>827</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A415" t="s">
+    <row r="415">
+      <c r="A415" s="0" t="s">
         <v>828</v>
       </c>
-      <c r="B415" t="s">
+      <c r="B415" s="0" t="s">
         <v>829</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A416" t="s">
+    <row r="416">
+      <c r="A416" s="0" t="s">
         <v>830</v>
       </c>
-      <c r="B416" t="s">
+      <c r="B416" s="0" t="s">
         <v>831</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A417" t="s">
+    <row r="417">
+      <c r="A417" s="0" t="s">
         <v>832</v>
       </c>
-      <c r="B417" t="s">
+      <c r="B417" s="0" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A418" t="s">
+    <row r="418">
+      <c r="A418" s="0" t="s">
         <v>834</v>
       </c>
-      <c r="B418" t="s">
+      <c r="B418" s="0" t="s">
         <v>835</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A419" t="s">
+    <row r="419">
+      <c r="A419" s="0" t="s">
         <v>836</v>
       </c>
-      <c r="B419" t="s">
+      <c r="B419" s="0" t="s">
         <v>837</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A420" t="s">
+    <row r="420">
+      <c r="A420" s="0" t="s">
         <v>838</v>
       </c>
-      <c r="B420" t="s">
+      <c r="B420" s="0" t="s">
         <v>839</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A421" t="s">
+    <row r="421">
+      <c r="A421" s="0" t="s">
         <v>840</v>
       </c>
-      <c r="B421" t="s">
+      <c r="B421" s="0" t="s">
         <v>841</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A422" t="s">
+    <row r="422">
+      <c r="A422" s="0" t="s">
         <v>842</v>
       </c>
-      <c r="B422" t="s">
+      <c r="B422" s="0" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A423" t="s">
+    <row r="423">
+      <c r="A423" s="0" t="s">
         <v>844</v>
       </c>
-      <c r="B423" t="s">
+      <c r="B423" s="0" t="s">
         <v>845</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A424" t="s">
+    <row r="424">
+      <c r="A424" s="0" t="s">
         <v>846</v>
       </c>
-      <c r="B424" t="s">
+      <c r="B424" s="0" t="s">
         <v>847</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A425" t="s">
+    <row r="425">
+      <c r="A425" s="0" t="s">
         <v>848</v>
       </c>
-      <c r="B425" t="s">
+      <c r="B425" s="0" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A426" t="s">
+    <row r="426">
+      <c r="A426" s="0" t="s">
         <v>850</v>
       </c>
-      <c r="B426" t="s">
+      <c r="B426" s="0" t="s">
         <v>851</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A427" t="s">
+    <row r="427">
+      <c r="A427" s="0" t="s">
         <v>852</v>
       </c>
-      <c r="B427" t="s">
+      <c r="B427" s="0" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A428" t="s">
+    <row r="428">
+      <c r="A428" s="0" t="s">
         <v>854</v>
       </c>
-      <c r="B428" t="s">
+      <c r="B428" s="0" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A429" t="s">
+    <row r="429">
+      <c r="A429" s="0" t="s">
         <v>856</v>
       </c>
-      <c r="B429" t="s">
+      <c r="B429" s="0" t="s">
         <v>857</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A430" t="s">
+    <row r="430">
+      <c r="A430" s="0" t="s">
         <v>858</v>
       </c>
-      <c r="B430" t="s">
+      <c r="B430" s="0" t="s">
         <v>859</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A431" t="s">
+    <row r="431">
+      <c r="A431" s="0" t="s">
         <v>860</v>
       </c>
-      <c r="B431" t="s">
+      <c r="B431" s="0" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A432" t="s">
+    <row r="432">
+      <c r="A432" s="0" t="s">
         <v>862</v>
       </c>
-      <c r="B432" t="s">
+      <c r="B432" s="0" t="s">
         <v>863</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A433" t="s">
+    <row r="433">
+      <c r="A433" s="0" t="s">
         <v>864</v>
       </c>
-      <c r="B433" t="s">
+      <c r="B433" s="0" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A434" t="s">
+    <row r="434">
+      <c r="A434" s="0" t="s">
         <v>866</v>
       </c>
-      <c r="B434" t="s">
+      <c r="B434" s="0" t="s">
         <v>867</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A435" t="s">
+    <row r="435">
+      <c r="A435" s="0" t="s">
         <v>868</v>
       </c>
-      <c r="B435" t="s">
+      <c r="B435" s="0" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A436" t="s">
+    <row r="436">
+      <c r="A436" s="0" t="s">
         <v>870</v>
       </c>
-      <c r="B436" t="s">
+      <c r="B436" s="0" t="s">
         <v>871</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A437" t="s">
+    <row r="437">
+      <c r="A437" s="0" t="s">
         <v>872</v>
       </c>
-      <c r="B437" t="s">
+      <c r="B437" s="0" t="s">
         <v>873</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A438" t="s">
+    <row r="438">
+      <c r="A438" s="0" t="s">
         <v>874</v>
       </c>
-      <c r="B438" t="s">
+      <c r="B438" s="0" t="s">
         <v>875</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A439" t="s">
+    <row r="439">
+      <c r="A439" s="0" t="s">
         <v>876</v>
       </c>
-      <c r="B439" t="s">
+      <c r="B439" s="0" t="s">
         <v>877</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A440" t="s">
+    <row r="440">
+      <c r="A440" s="0" t="s">
         <v>878</v>
       </c>
-      <c r="B440" t="s">
+      <c r="B440" s="0" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A441" t="s">
+    <row r="441">
+      <c r="A441" s="0" t="s">
         <v>880</v>
       </c>
-      <c r="B441" t="s">
+      <c r="B441" s="0" t="s">
         <v>881</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A442" t="s">
+    <row r="442">
+      <c r="A442" s="0" t="s">
         <v>882</v>
       </c>
-      <c r="B442" t="s">
+      <c r="B442" s="0" t="s">
         <v>883</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A443" t="s">
+    <row r="443">
+      <c r="A443" s="0" t="s">
         <v>884</v>
       </c>
-      <c r="B443" t="s">
+      <c r="B443" s="0" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A444" t="s">
+    <row r="444">
+      <c r="A444" s="0" t="s">
         <v>886</v>
       </c>
-      <c r="B444" t="s">
+      <c r="B444" s="0" t="s">
         <v>887</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A445" t="s">
+    <row r="445">
+      <c r="A445" s="0" t="s">
         <v>888</v>
       </c>
-      <c r="B445" t="s">
+      <c r="B445" s="0" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A446" t="s">
+    <row r="446">
+      <c r="A446" s="0" t="s">
         <v>890</v>
       </c>
-      <c r="B446" t="s">
+      <c r="B446" s="0" t="s">
         <v>891</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A447" t="s">
+    <row r="447">
+      <c r="A447" s="0" t="s">
         <v>892</v>
       </c>
-      <c r="B447" t="s">
+      <c r="B447" s="0" t="s">
         <v>893</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A448" t="s">
+    <row r="448">
+      <c r="A448" s="0" t="s">
         <v>894</v>
       </c>
-      <c r="B448" t="s">
+      <c r="B448" s="0" t="s">
         <v>895</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A449" t="s">
+    <row r="449">
+      <c r="A449" s="0" t="s">
         <v>896</v>
       </c>
-      <c r="B449" t="s">
+      <c r="B449" s="0" t="s">
         <v>897</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A450" t="s">
+    <row r="450">
+      <c r="A450" s="0" t="s">
         <v>898</v>
       </c>
-      <c r="B450" t="s">
+      <c r="B450" s="0" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A451" t="s">
+    <row r="451">
+      <c r="A451" s="0" t="s">
         <v>900</v>
       </c>
-      <c r="B451" t="s">
+      <c r="B451" s="0" t="s">
         <v>901</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A452" t="s">
+    <row r="452">
+      <c r="A452" s="0" t="s">
         <v>902</v>
       </c>
-      <c r="B452" t="s">
+      <c r="B452" s="0" t="s">
         <v>903</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A453" t="s">
+    <row r="453">
+      <c r="A453" s="0" t="s">
         <v>904</v>
       </c>
-      <c r="B453" t="s">
+      <c r="B453" s="0" t="s">
         <v>905</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A454" t="s">
+    <row r="454">
+      <c r="A454" s="0" t="s">
         <v>906</v>
       </c>
-      <c r="B454" t="s">
+      <c r="B454" s="0" t="s">
         <v>907</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A455" t="s">
+    <row r="455">
+      <c r="A455" s="0" t="s">
         <v>908</v>
       </c>
-      <c r="B455" t="s">
+      <c r="B455" s="0" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A456" t="s">
+    <row r="456">
+      <c r="A456" s="0" t="s">
         <v>910</v>
       </c>
-      <c r="B456" t="s">
+      <c r="B456" s="0" t="s">
         <v>911</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A457" t="s">
+    <row r="457">
+      <c r="A457" s="0" t="s">
         <v>912</v>
       </c>
-      <c r="B457" t="s">
+      <c r="B457" s="0" t="s">
         <v>913</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A458" t="s">
+    <row r="458">
+      <c r="A458" s="0" t="s">
         <v>914</v>
       </c>
-      <c r="B458" t="s">
+      <c r="B458" s="0" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A459" t="s">
+    <row r="459">
+      <c r="A459" s="0" t="s">
         <v>916</v>
       </c>
-      <c r="B459" t="s">
+      <c r="B459" s="0" t="s">
         <v>917</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A460" t="s">
+    <row r="460">
+      <c r="A460" s="0" t="s">
         <v>918</v>
       </c>
-      <c r="B460" t="s">
+      <c r="B460" s="0" t="s">
         <v>919</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A461" t="s">
+    <row r="461">
+      <c r="A461" s="0" t="s">
         <v>920</v>
       </c>
-      <c r="B461" t="s">
+      <c r="B461" s="0" t="s">
         <v>921</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A462" t="s">
+    <row r="462">
+      <c r="A462" s="0" t="s">
         <v>922</v>
       </c>
-      <c r="B462" t="s">
+      <c r="B462" s="0" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A463" t="s">
+    <row r="463">
+      <c r="A463" s="0" t="s">
         <v>924</v>
       </c>
-      <c r="B463" t="s">
+      <c r="B463" s="0" t="s">
         <v>925</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A464" t="s">
+    <row r="464">
+      <c r="A464" s="0" t="s">
         <v>926</v>
       </c>
-      <c r="B464" t="s">
+      <c r="B464" s="0" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A465" t="s">
+    <row r="465">
+      <c r="A465" s="0" t="s">
         <v>928</v>
       </c>
-      <c r="B465" t="s">
+      <c r="B465" s="0" t="s">
         <v>929</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A466" t="s">
+    <row r="466">
+      <c r="A466" s="0" t="s">
         <v>930</v>
       </c>
-      <c r="B466" t="s">
+      <c r="B466" s="0" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A467" t="s">
+    <row r="467">
+      <c r="A467" s="0" t="s">
         <v>932</v>
       </c>
-      <c r="B467" t="s">
+      <c r="B467" s="0" t="s">
         <v>933</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A468" t="s">
+    <row r="468">
+      <c r="A468" s="0" t="s">
         <v>934</v>
       </c>
-      <c r="B468" t="s">
+      <c r="B468" s="0" t="s">
         <v>935</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A469" t="s">
+    <row r="469">
+      <c r="A469" s="0" t="s">
         <v>936</v>
       </c>
-      <c r="B469" t="s">
+      <c r="B469" s="0" t="s">
         <v>937</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A470" t="s">
+    <row r="470">
+      <c r="A470" s="0" t="s">
         <v>938</v>
       </c>
-      <c r="B470" t="s">
+      <c r="B470" s="0" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A471" t="s">
+    <row r="471">
+      <c r="A471" s="0" t="s">
         <v>940</v>
       </c>
-      <c r="B471" t="s">
+      <c r="B471" s="0" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A472" t="s">
+    <row r="472">
+      <c r="A472" s="0" t="s">
         <v>942</v>
       </c>
-      <c r="B472" t="s">
+      <c r="B472" s="0" t="s">
         <v>943</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A473" t="s">
+    <row r="473">
+      <c r="A473" s="0" t="s">
         <v>944</v>
       </c>
-      <c r="B473" t="s">
+      <c r="B473" s="0" t="s">
         <v>945</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A474" t="s">
+    <row r="474">
+      <c r="A474" s="0" t="s">
         <v>946</v>
       </c>
-      <c r="B474" t="s">
+      <c r="B474" s="0" t="s">
         <v>947</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A475" t="s">
+    <row r="475">
+      <c r="A475" s="0" t="s">
         <v>948</v>
       </c>
-      <c r="B475" t="s">
+      <c r="B475" s="0" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A476" t="s">
+    <row r="476">
+      <c r="A476" s="0" t="s">
         <v>950</v>
       </c>
-      <c r="B476" t="s">
+      <c r="B476" s="0" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A477" t="s">
+    <row r="477">
+      <c r="A477" s="0" t="s">
         <v>952</v>
       </c>
-      <c r="B477" t="s">
+      <c r="B477" s="0" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A478" t="s">
+    <row r="478">
+      <c r="A478" s="0" t="s">
         <v>954</v>
       </c>
-      <c r="B478" t="s">
+      <c r="B478" s="0" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A479" t="s">
+    <row r="479">
+      <c r="A479" s="0" t="s">
         <v>956</v>
       </c>
-      <c r="B479" t="s">
+      <c r="B479" s="0" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A480" t="s">
+    <row r="480">
+      <c r="A480" s="0" t="s">
         <v>958</v>
       </c>
-      <c r="B480" t="s">
+      <c r="B480" s="0" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A481" t="s">
+    <row r="481">
+      <c r="A481" s="0" t="s">
         <v>960</v>
       </c>
-      <c r="B481" t="s">
+      <c r="B481" s="0" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A482" t="s">
+    <row r="482">
+      <c r="A482" s="0" t="s">
         <v>962</v>
       </c>
-      <c r="B482" t="s">
+      <c r="B482" s="0" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A483" t="s">
+    <row r="483">
+      <c r="A483" s="0" t="s">
         <v>964</v>
       </c>
-      <c r="B483" t="s">
+      <c r="B483" s="0" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A484" t="s">
+    <row r="484">
+      <c r="A484" s="0" t="s">
         <v>966</v>
       </c>
-      <c r="B484" t="s">
+      <c r="B484" s="0" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A485" t="s">
+    <row r="485">
+      <c r="A485" s="0" t="s">
         <v>968</v>
       </c>
-      <c r="B485" t="s">
+      <c r="B485" s="0" t="s">
         <v>969</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A486" t="s">
+    <row r="486">
+      <c r="A486" s="0" t="s">
         <v>970</v>
       </c>
-      <c r="B486" t="s">
+      <c r="B486" s="0" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A487" t="s">
+    <row r="487">
+      <c r="A487" s="0" t="s">
         <v>972</v>
       </c>
-      <c r="B487" t="s">
+      <c r="B487" s="0" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A488" t="s">
+    <row r="488">
+      <c r="A488" s="0" t="s">
         <v>974</v>
       </c>
-      <c r="B488" t="s">
+      <c r="B488" s="0" t="s">
         <v>975</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A489" t="s">
+    <row r="489">
+      <c r="A489" s="0" t="s">
         <v>976</v>
       </c>
-      <c r="B489" t="s">
+      <c r="B489" s="0" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A490" t="s">
+    <row r="490">
+      <c r="A490" s="0" t="s">
         <v>978</v>
       </c>
-      <c r="B490" t="s">
+      <c r="B490" s="0" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A491" t="s">
+    <row r="491">
+      <c r="A491" s="0" t="s">
         <v>980</v>
       </c>
-      <c r="B491" t="s">
+      <c r="B491" s="0" t="s">
         <v>981</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A492" t="s">
+    <row r="492">
+      <c r="A492" s="0" t="s">
         <v>982</v>
       </c>
-      <c r="B492" t="s">
+      <c r="B492" s="0" t="s">
         <v>983</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A493" t="s">
+    <row r="493">
+      <c r="A493" s="0" t="s">
         <v>984</v>
       </c>
-      <c r="B493" t="s">
+      <c r="B493" s="0" t="s">
         <v>985</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A494" t="s">
+    <row r="494">
+      <c r="A494" s="0" t="s">
         <v>986</v>
       </c>
-      <c r="B494" t="s">
+      <c r="B494" s="0" t="s">
         <v>987</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A495" t="s">
+    <row r="495">
+      <c r="A495" s="0" t="s">
         <v>988</v>
       </c>
-      <c r="B495" t="s">
+      <c r="B495" s="0" t="s">
         <v>989</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A496" t="s">
+    <row r="496">
+      <c r="A496" s="0" t="s">
         <v>990</v>
       </c>
-      <c r="B496" t="s">
+      <c r="B496" s="0" t="s">
         <v>991</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A497" t="s">
+    <row r="497">
+      <c r="A497" s="0" t="s">
         <v>992</v>
       </c>
-      <c r="B497" t="s">
+      <c r="B497" s="0" t="s">
         <v>993</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A498" t="s">
+    <row r="498">
+      <c r="A498" s="0" t="s">
         <v>994</v>
       </c>
-      <c r="B498" t="s">
+      <c r="B498" s="0" t="s">
         <v>995</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A499" t="s">
+    <row r="499">
+      <c r="A499" s="0" t="s">
         <v>996</v>
       </c>
-      <c r="B499" t="s">
+      <c r="B499" s="0" t="s">
         <v>997</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A500" t="s">
+    <row r="500">
+      <c r="A500" s="0" t="s">
         <v>998</v>
       </c>
-      <c r="B500" t="s">
+      <c r="B500" s="0" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A501" t="s">
+    <row r="501">
+      <c r="A501" s="0" t="s">
         <v>1000</v>
       </c>
-      <c r="B501" t="s">
+      <c r="B501" s="0" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A502" t="s">
+    <row r="502">
+      <c r="A502" s="0" t="s">
         <v>1002</v>
       </c>
-      <c r="B502" t="s">
+      <c r="B502" s="0" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A503" t="s">
+    <row r="503">
+      <c r="A503" s="0" t="s">
         <v>1004</v>
       </c>
-      <c r="B503" t="s">
+      <c r="B503" s="0" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A504" t="s">
+    <row r="504">
+      <c r="A504" s="0" t="s">
         <v>1006</v>
       </c>
-      <c r="B504" t="s">
+      <c r="B504" s="0" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A505" t="s">
+    <row r="505">
+      <c r="A505" s="0" t="s">
         <v>1008</v>
       </c>
-      <c r="B505" t="s">
+      <c r="B505" s="0" t="s">
         <v>1009</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A506" t="s">
+    <row r="506">
+      <c r="A506" s="0" t="s">
         <v>1010</v>
       </c>
-      <c r="B506" t="s">
+      <c r="B506" s="0" t="s">
         <v>1011</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A507" t="s">
+    <row r="507">
+      <c r="A507" s="0" t="s">
         <v>1012</v>
       </c>
-      <c r="B507" t="s">
+      <c r="B507" s="0" t="s">
         <v>1013</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A508" t="s">
+    <row r="508">
+      <c r="A508" s="0" t="s">
         <v>1014</v>
       </c>
-      <c r="B508" t="s">
+      <c r="B508" s="0" t="s">
         <v>1015</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A509" t="s">
+    <row r="509">
+      <c r="A509" s="0" t="s">
         <v>1016</v>
       </c>
-      <c r="B509" t="s">
+      <c r="B509" s="0" t="s">
         <v>1017</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A510" t="s">
+    <row r="510">
+      <c r="A510" s="0" t="s">
         <v>1018</v>
       </c>
-      <c r="B510" t="s">
+      <c r="B510" s="0" t="s">
         <v>1019</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A511" t="s">
+    <row r="511">
+      <c r="A511" s="0" t="s">
         <v>1020</v>
       </c>
-      <c r="B511" t="s">
+      <c r="B511" s="0" t="s">
         <v>1021</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A512" t="s">
+    <row r="512">
+      <c r="A512" s="0" t="s">
         <v>1022</v>
       </c>
-      <c r="B512" t="s">
+      <c r="B512" s="0" t="s">
         <v>1023</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A513" t="s">
+    <row r="513">
+      <c r="A513" s="0" t="s">
         <v>1024</v>
       </c>
-      <c r="B513" t="s">
+      <c r="B513" s="0" t="s">
         <v>1025</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A514" t="s">
+    <row r="514">
+      <c r="A514" s="0" t="s">
         <v>1026</v>
       </c>
-      <c r="B514" t="s">
+      <c r="B514" s="0" t="s">
         <v>1027</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A515" t="s">
+    <row r="515">
+      <c r="A515" s="0" t="s">
         <v>1028</v>
       </c>
-      <c r="B515" t="s">
+      <c r="B515" s="0" t="s">
         <v>1029</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A516" t="s">
+    <row r="516">
+      <c r="A516" s="0" t="s">
         <v>1030</v>
       </c>
-      <c r="B516" t="s">
+      <c r="B516" s="0" t="s">
         <v>1031</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A517" t="s">
+    <row r="517">
+      <c r="A517" s="0" t="s">
         <v>1032</v>
       </c>
-      <c r="B517" t="s">
+      <c r="B517" s="0" t="s">
         <v>1033</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Files/activePlans.xlsx
+++ b/Files/activePlans.xlsx
@@ -12,1332 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1034" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="594" uniqueCount="594">
   <si>
     <t>Name</t>
   </si>
   <si>
     <t>Link</t>
-  </si>
-  <si>
-    <t>AiR/NW/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=97778</t>
-  </si>
-  <si>
-    <t>AiR/NW/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151300</t>
-  </si>
-  <si>
-    <t>AiR/NW/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=97781</t>
-  </si>
-  <si>
-    <t>AiR/NW/6sem/1gr/a/MiR</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=97783</t>
-  </si>
-  <si>
-    <t>AiR/NW/6sem/1gr/b/MiR</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151317</t>
-  </si>
-  <si>
-    <t>AiR/NW/8sem/1gr/a/MiR</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142125</t>
-  </si>
-  <si>
-    <t>AiR/S/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12340</t>
-  </si>
-  <si>
-    <t>AiR/S/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12341</t>
-  </si>
-  <si>
-    <t>AiR/S/2sem/1gr/c</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=154829</t>
-  </si>
-  <si>
-    <t>AiR/S/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12348</t>
-  </si>
-  <si>
-    <t>AiR/S/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12349</t>
-  </si>
-  <si>
-    <t>AiR/S/6sem/1gr/a/MiR</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151201</t>
-  </si>
-  <si>
-    <t>AiR/S/6sem/1gr/b/MiR</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151202</t>
-  </si>
-  <si>
-    <t>Analit/NZ/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=66973</t>
-  </si>
-  <si>
-    <t>Analit/NZ/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=137531</t>
-  </si>
-  <si>
-    <t>Analit/NZ/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=85760</t>
-  </si>
-  <si>
-    <t>Analit/NZ/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150609</t>
-  </si>
-  <si>
-    <t>Analit/NZ/6sem 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=85762</t>
-  </si>
-  <si>
-    <t>Analit/S/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=66984</t>
-  </si>
-  <si>
-    <t>Analit/S/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=66985</t>
-  </si>
-  <si>
-    <t>Analit/S/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=114469</t>
-  </si>
-  <si>
-    <t>Analit/S/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=137255</t>
-  </si>
-  <si>
-    <t>Analit/S/6sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=90983</t>
-  </si>
-  <si>
-    <t>Analit/S/6sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=145587</t>
-  </si>
-  <si>
-    <t>Bud/S/IIst/1sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=74834</t>
-  </si>
-  <si>
-    <t>Bud/S/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12825</t>
-  </si>
-  <si>
-    <t>Bud/S/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=71562</t>
-  </si>
-  <si>
-    <t>Bud/S/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=16772</t>
-  </si>
-  <si>
-    <t>Bud/S/Ist/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=127356</t>
-  </si>
-  <si>
-    <t>Bud/S/Ist/6sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=23345</t>
-  </si>
-  <si>
-    <t>Bud/S/Ist/6sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=145144</t>
-  </si>
-  <si>
-    <t>EP/NW/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142129</t>
-  </si>
-  <si>
-    <t>EP/NW/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=127948</t>
-  </si>
-  <si>
-    <t>EP/NW/6sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=139918</t>
-  </si>
-  <si>
-    <t>EP/S/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=123648</t>
-  </si>
-  <si>
-    <t>EP/S/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=124693</t>
-  </si>
-  <si>
-    <t>EP/S/6sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=141067</t>
-  </si>
-  <si>
-    <t>Erasmus/WBMiI/sem_2</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142130</t>
-  </si>
-  <si>
-    <t>Fil ang/S/IIst/2sem/1gr/naucz</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=145146</t>
-  </si>
-  <si>
-    <t>Fil ang/S/IIst/2sem/2gr/tłumacz</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=97004</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/2sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=59783</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/2sem/2gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=59782</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/2sem/3gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=59781</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/2sem/4gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=145145</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/4sem/1gr/a/naucz</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12540</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/4sem/2gr/a/TzAJB</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152013</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/4sem/2gr/b/TzAJB</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152014</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/4sem/3gr/TNTwP 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152016</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/6sem/1gr/a/Naucz</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12545</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/6sem/2gr/a/TzAJB</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12547</t>
-  </si>
-  <si>
-    <t>Fil ang/S/Ist/6sem/2gr/b/TzAJB</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=84689</t>
-  </si>
-  <si>
-    <t>Fil hisz/S/IIst/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=145141</t>
-  </si>
-  <si>
-    <t>Fil hisz/S/Ist/2sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12517</t>
-  </si>
-  <si>
-    <t>Fil hisz/S/Ist/2sem/2gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12519</t>
-  </si>
-  <si>
-    <t>Fil hisz/S/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12521</t>
-  </si>
-  <si>
-    <t>Fil hisz/S/Ist/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=97352</t>
-  </si>
-  <si>
-    <t>Fil hisz/S/Ist/6sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12523</t>
-  </si>
-  <si>
-    <t>Fil pol/S/IIst/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12572</t>
-  </si>
-  <si>
-    <t>Fil pol/S/Ist/2sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12555</t>
-  </si>
-  <si>
-    <t>Fil pol/S/Ist/4sem/1gr/nau 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=92070</t>
-  </si>
-  <si>
-    <t>Fil pol/S/Ist/6sem/1gr/nau 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=98570</t>
-  </si>
-  <si>
-    <t>Inf/NZ/IIst/2sem/1gr/a/TTO</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136941</t>
-  </si>
-  <si>
-    <t>Inf/NZ/IIst/2sem/1gr/b/SI</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=140985</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12150</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=61137</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/2sem/2gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136936</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/2sem/2gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=140980</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12153</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136935</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/4sem/2gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136934</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/6sem/1gr/a/IO</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=18739</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/6sem/1gr/b/IO</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136937</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/6sem/2gr/a/SKiBS</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136940</t>
-  </si>
-  <si>
-    <t>Inf/NZ/Ist/6sem/2gr/b/SKiBS</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150382</t>
-  </si>
-  <si>
-    <t>Inf/S/IIst/1sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=128459</t>
-  </si>
-  <si>
-    <t>Inf/S/IIst/1sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136969</t>
-  </si>
-  <si>
-    <t>Inf/S/IIst/3sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136967</t>
-  </si>
-  <si>
-    <t>Inf/S/IIst/3sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136968</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12633</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12634</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/2sem/2gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12637</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/2sem/2gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142123</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/2sem/3gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=126070</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/2sem/3gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=129984</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12646</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12647</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/4sem/2gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=99396</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/4sem/2gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142131</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/4sem/3gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136966</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/4sem/3gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151659</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/6sem/1gr/a/IO</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12652</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/6sem/1gr/b/IO</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12653</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/6sem/2gr/a/IO</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=61023</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/6sem/2gr/b/IO</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=126134</t>
-  </si>
-  <si>
-    <t>Inf/S/Ist/6sem/3gr/a/IO</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151714</t>
-  </si>
-  <si>
-    <t>Inż mat/S/IIst/1sem 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=94624</t>
-  </si>
-  <si>
-    <t>Inż mat/S/Ist/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142140</t>
-  </si>
-  <si>
-    <t>Inż śr/S/IIst/1sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=25690</t>
-  </si>
-  <si>
-    <t>Inż śr/S/IIst/3sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=25699</t>
-  </si>
-  <si>
-    <t>Inż śr/S/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12740</t>
-  </si>
-  <si>
-    <t>Inż śr/S/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152030</t>
-  </si>
-  <si>
-    <t>Inż śr/S/Ist/6sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=25683</t>
-  </si>
-  <si>
-    <t>Kom int/S/2sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=133552</t>
-  </si>
-  <si>
-    <t>Kom int/S/2sem/2gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=135845</t>
-  </si>
-  <si>
-    <t>Kom int/S/2sem/3gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=154998</t>
-  </si>
-  <si>
-    <t>Kom int/S/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=135848</t>
-  </si>
-  <si>
-    <t>Kom int/S/4sem/2gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=135849</t>
-  </si>
-  <si>
-    <t>MiBM/NW/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142121</t>
-  </si>
-  <si>
-    <t>MiBM/NW/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=141076</t>
-  </si>
-  <si>
-    <t>MiBM/NW/Ist/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12124</t>
-  </si>
-  <si>
-    <t>MiBM/NW/Ist/6sem/1gr/a/KWiW</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12126</t>
-  </si>
-  <si>
-    <t>MiBM/NW/Ist/8sem/1gr/a/KWiW</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12129</t>
-  </si>
-  <si>
-    <t>MiBM/S/IIst/1sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142122</t>
-  </si>
-  <si>
-    <t>MiBM/S/IIst/3sem/1gr/PiTD3D</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142104</t>
-  </si>
-  <si>
-    <t>MiBM/S/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=126632</t>
-  </si>
-  <si>
-    <t>MiBM/S/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12605</t>
-  </si>
-  <si>
-    <t>MiBM/S/Ist/6sem/1gr/a/KWKiW</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12613</t>
-  </si>
-  <si>
-    <t>Mt/S/IIst/1sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=141169</t>
-  </si>
-  <si>
-    <t>Mt/S/IIst/2sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142145</t>
-  </si>
-  <si>
-    <t>Ochr śr/S/4sem/1gr/EŚ</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12733</t>
-  </si>
-  <si>
-    <t>Ped/S/4sem/1gr/PSiTP</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=114712</t>
-  </si>
-  <si>
-    <t>Ped/S/Ist/2sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12577</t>
-  </si>
-  <si>
-    <t>Ped/S/Ist/2sem/2gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151978</t>
-  </si>
-  <si>
-    <t>Ped/S/Ist/4sem/1gr/R</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151980</t>
-  </si>
-  <si>
-    <t>Ped/S/Ist/6sem/1gr/PSiTP 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=145147</t>
-  </si>
-  <si>
-    <t>Piel/NZ/IIst/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=26849</t>
-  </si>
-  <si>
-    <t>Piel/NZ/IIst/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=98643</t>
-  </si>
-  <si>
-    <t>Piel/NZ/IIst/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=36930</t>
-  </si>
-  <si>
-    <t>Piel/NZ/IIst/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151507</t>
-  </si>
-  <si>
-    <t>Piel/S/IIst/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=29133</t>
-  </si>
-  <si>
-    <t>Piel/S/IIst/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=98644</t>
-  </si>
-  <si>
-    <t>Piel/S/IIst/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=39689</t>
-  </si>
-  <si>
-    <t>Piel/S/IIst/4sem/2gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=100885</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/2sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12694</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/2sem/2gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=100264</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/2sem/3gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=105351</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/2sem/4gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=141524</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=98672</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/4sem/2gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=100877</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/4sem/3gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=116611</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/6sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152249</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/6sem/2gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152252</t>
-  </si>
-  <si>
-    <t>Piel/S/Ist/6sem/3gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152253</t>
-  </si>
-  <si>
-    <t>PPiW/S/JM/10sem 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=124697</t>
-  </si>
-  <si>
-    <t>PPiW/S/JM/2sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=95719</t>
-  </si>
-  <si>
-    <t>PPiW/S/JM/4sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=105266</t>
-  </si>
-  <si>
-    <t>PPiW/S/JM/6sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=105269</t>
-  </si>
-  <si>
-    <t>PPiW/S/JM/6sem/2gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151981</t>
-  </si>
-  <si>
-    <t>PPiW/S/JM/8sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=123187</t>
-  </si>
-  <si>
-    <t>Rat/NZ/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=26851</t>
-  </si>
-  <si>
-    <t>Rat/NZ/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=37290</t>
-  </si>
-  <si>
-    <t>Rat/NZ/4sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=19073</t>
-  </si>
-  <si>
-    <t>Rat/S/2sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12698</t>
-  </si>
-  <si>
-    <t>Rat/S/2sem/2gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12819</t>
-  </si>
-  <si>
-    <t>Rat/S/4sem 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12699</t>
-  </si>
-  <si>
-    <t>Rat/S/6sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152255</t>
-  </si>
-  <si>
-    <t>Rat/S/6sem/2gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=152256</t>
-  </si>
-  <si>
-    <t>Soc/S/4sem/1gr/a/KSiNM</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=115114</t>
-  </si>
-  <si>
-    <t>Soc/S/4sem/1gr/b/SOiZZ</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150946</t>
-  </si>
-  <si>
-    <t>Soc/S/6sem/1gr/KSiNM</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=137311</t>
-  </si>
-  <si>
-    <t>Trans/NZ/IIst/2sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=85807</t>
-  </si>
-  <si>
-    <t>Trans/NZ/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12195</t>
-  </si>
-  <si>
-    <t>Trans/NZ/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=127194</t>
-  </si>
-  <si>
-    <t>Trans/NZ/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12200</t>
-  </si>
-  <si>
-    <t>Trans/NZ/Ist/6sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=25571</t>
-  </si>
-  <si>
-    <t>Trans/NZ/Ist/6sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150627</t>
-  </si>
-  <si>
-    <t>Trans/NZ/Ist/8sem/1gr/EiBT</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=25573</t>
-  </si>
-  <si>
-    <t>Trans/S/IIst/1sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=86222</t>
-  </si>
-  <si>
-    <t>Trans/S/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12421</t>
-  </si>
-  <si>
-    <t>Trans/S/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12422</t>
-  </si>
-  <si>
-    <t>Trans/S/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12430</t>
-  </si>
-  <si>
-    <t>Trans/S/Ist/6sem/1gr/a/IST</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=19108</t>
-  </si>
-  <si>
-    <t>Trans/S/Ist/6sem/1gr/b/LiSK 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=137045</t>
-  </si>
-  <si>
-    <t>Tur/S/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=144981</t>
-  </si>
-  <si>
-    <t>Tur/S/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=145104</t>
-  </si>
-  <si>
-    <t>Tur/S/2sem/2gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150451</t>
-  </si>
-  <si>
-    <t>Tur/S/2sem/2gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150452</t>
-  </si>
-  <si>
-    <t>Zarz/NZ/IIst/2sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=85716</t>
-  </si>
-  <si>
-    <t>Zarz/NZ/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12207</t>
-  </si>
-  <si>
-    <t>Zarz/NZ/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=127378</t>
-  </si>
-  <si>
-    <t>Zarz/NZ/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12211</t>
-  </si>
-  <si>
-    <t>Zarz/NZ/Ist/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=127129</t>
-  </si>
-  <si>
-    <t>Zarz/NZ/Ist/6sem/1gr/a/ZLiJ</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=137451</t>
-  </si>
-  <si>
-    <t>Zarz/NZ/Ist/6sem/2gr/ZF 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12216</t>
-  </si>
-  <si>
-    <t>Zarz/S/IIst/2sem/1gr</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12473</t>
-  </si>
-  <si>
-    <t>Zarz/S/IIst/4sem/1gr/ZF 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12480</t>
-  </si>
-  <si>
-    <t>Zarz/S/IIst/4sem/2gr/ZwAiFO 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12481</t>
-  </si>
-  <si>
-    <t>Zarz/S/IIst/4sem/3gr/MLiJ 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150863</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12442</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12443</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/2sem/2gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12446</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/2sem/2gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=127379</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/2sem/3gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150733</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/2sem/3gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=150734</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/4sem/1gr/ZF 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12456</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/4sem/2gr/ZwAiFO 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12457</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/4sem/3gr/ZLiJ 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=85061</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/6sem/1gr/ZF 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=97080</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/6sem/2gr/ZwAiFO 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12467</t>
-  </si>
-  <si>
-    <t>Zarz/S/Ist/6sem/3gr/ZLiJ 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12465</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/IIst/2sem/1gr/a/IZPrz</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142124</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/IIst/2sem/1gr/b/IIPrz</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=140994</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12160</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12161</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/2sem/2gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=126203</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/2sem/2gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=151770</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/4sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12166</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/4sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12167</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/4sem/2gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=153575</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/6sem/1gr/a/IZP-PP</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12177</t>
-  </si>
-  <si>
-    <t>ZiIP/NZ/Ist/6sem/1gr/b/IZP-PP</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142152</t>
-  </si>
-  <si>
-    <t>ZiIP/S/IIst/1sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12686</t>
-  </si>
-  <si>
-    <t>ZiIP/S/IIst/1sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142263</t>
-  </si>
-  <si>
-    <t>ZiIP/S/IIst/3sem/1gr/IIPrz/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136970</t>
-  </si>
-  <si>
-    <t>ZiIP/S/IIst/3sem/1gr/IIPrz/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=136971</t>
-  </si>
-  <si>
-    <t>ZiIP/S/Ist/2sem/1gr/a</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=25566</t>
-  </si>
-  <si>
-    <t>ZiIP/S/Ist/2sem/1gr/b</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12665</t>
-  </si>
-  <si>
-    <t>ZiIP/S/Ist/4sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=12670</t>
-  </si>
-  <si>
-    <t>ZiIP/S/Ist/6sem/1gr/a/IZS</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=142153</t>
-  </si>
-  <si>
-    <t>Zzl/S/2sem/1gr 1</t>
-  </si>
-  <si>
-    <t>plan.php?type=0&amp;id=145009</t>
   </si>
   <si>
     <t>A A</t>
@@ -3159,7 +1839,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B517"/>
+  <dimension ref="A1:B297"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5541,1766 +4221,6 @@
         <v>593</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="0" t="s">
-        <v>594</v>
-      </c>
-      <c r="B298" s="0" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="A299" s="0" t="s">
-        <v>596</v>
-      </c>
-      <c r="B299" s="0" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="A300" s="0" t="s">
-        <v>598</v>
-      </c>
-      <c r="B300" s="0" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="0" t="s">
-        <v>600</v>
-      </c>
-      <c r="B301" s="0" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="0" t="s">
-        <v>602</v>
-      </c>
-      <c r="B302" s="0" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="0" t="s">
-        <v>604</v>
-      </c>
-      <c r="B303" s="0" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" s="0" t="s">
-        <v>606</v>
-      </c>
-      <c r="B304" s="0" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" s="0" t="s">
-        <v>608</v>
-      </c>
-      <c r="B305" s="0" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="0" t="s">
-        <v>610</v>
-      </c>
-      <c r="B306" s="0" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="0" t="s">
-        <v>612</v>
-      </c>
-      <c r="B307" s="0" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="0" t="s">
-        <v>614</v>
-      </c>
-      <c r="B308" s="0" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" s="0" t="s">
-        <v>616</v>
-      </c>
-      <c r="B309" s="0" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" s="0" t="s">
-        <v>618</v>
-      </c>
-      <c r="B310" s="0" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="0" t="s">
-        <v>620</v>
-      </c>
-      <c r="B311" s="0" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="0" t="s">
-        <v>622</v>
-      </c>
-      <c r="B312" s="0" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="0" t="s">
-        <v>624</v>
-      </c>
-      <c r="B313" s="0" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="0" t="s">
-        <v>626</v>
-      </c>
-      <c r="B314" s="0" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" s="0" t="s">
-        <v>628</v>
-      </c>
-      <c r="B315" s="0" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="0" t="s">
-        <v>630</v>
-      </c>
-      <c r="B316" s="0" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="0" t="s">
-        <v>632</v>
-      </c>
-      <c r="B317" s="0" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="0" t="s">
-        <v>634</v>
-      </c>
-      <c r="B318" s="0" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" s="0" t="s">
-        <v>636</v>
-      </c>
-      <c r="B319" s="0" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" s="0" t="s">
-        <v>638</v>
-      </c>
-      <c r="B320" s="0" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="0" t="s">
-        <v>640</v>
-      </c>
-      <c r="B321" s="0" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="0" t="s">
-        <v>642</v>
-      </c>
-      <c r="B322" s="0" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="0" t="s">
-        <v>644</v>
-      </c>
-      <c r="B323" s="0" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" s="0" t="s">
-        <v>646</v>
-      </c>
-      <c r="B324" s="0" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" s="0" t="s">
-        <v>648</v>
-      </c>
-      <c r="B325" s="0" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="0" t="s">
-        <v>650</v>
-      </c>
-      <c r="B326" s="0" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="0" t="s">
-        <v>652</v>
-      </c>
-      <c r="B327" s="0" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="0" t="s">
-        <v>654</v>
-      </c>
-      <c r="B328" s="0" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" s="0" t="s">
-        <v>656</v>
-      </c>
-      <c r="B329" s="0" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" s="0" t="s">
-        <v>658</v>
-      </c>
-      <c r="B330" s="0" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="0" t="s">
-        <v>660</v>
-      </c>
-      <c r="B331" s="0" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="0" t="s">
-        <v>662</v>
-      </c>
-      <c r="B332" s="0" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="0" t="s">
-        <v>664</v>
-      </c>
-      <c r="B333" s="0" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" s="0" t="s">
-        <v>666</v>
-      </c>
-      <c r="B334" s="0" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" s="0" t="s">
-        <v>668</v>
-      </c>
-      <c r="B335" s="0" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="0" t="s">
-        <v>670</v>
-      </c>
-      <c r="B336" s="0" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="0" t="s">
-        <v>672</v>
-      </c>
-      <c r="B337" s="0" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="0" t="s">
-        <v>674</v>
-      </c>
-      <c r="B338" s="0" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" s="0" t="s">
-        <v>676</v>
-      </c>
-      <c r="B339" s="0" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" s="0" t="s">
-        <v>678</v>
-      </c>
-      <c r="B340" s="0" t="s">
-        <v>679</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="0" t="s">
-        <v>680</v>
-      </c>
-      <c r="B341" s="0" t="s">
-        <v>681</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="0" t="s">
-        <v>682</v>
-      </c>
-      <c r="B342" s="0" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="0" t="s">
-        <v>684</v>
-      </c>
-      <c r="B343" s="0" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" s="0" t="s">
-        <v>686</v>
-      </c>
-      <c r="B344" s="0" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" s="0" t="s">
-        <v>688</v>
-      </c>
-      <c r="B345" s="0" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="0" t="s">
-        <v>690</v>
-      </c>
-      <c r="B346" s="0" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="0" t="s">
-        <v>692</v>
-      </c>
-      <c r="B347" s="0" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="0" t="s">
-        <v>694</v>
-      </c>
-      <c r="B348" s="0" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" s="0" t="s">
-        <v>696</v>
-      </c>
-      <c r="B349" s="0" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="0" t="s">
-        <v>698</v>
-      </c>
-      <c r="B350" s="0" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="0" t="s">
-        <v>700</v>
-      </c>
-      <c r="B351" s="0" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="0" t="s">
-        <v>702</v>
-      </c>
-      <c r="B352" s="0" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="0" t="s">
-        <v>704</v>
-      </c>
-      <c r="B353" s="0" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" s="0" t="s">
-        <v>706</v>
-      </c>
-      <c r="B354" s="0" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" s="0" t="s">
-        <v>708</v>
-      </c>
-      <c r="B355" s="0" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="0" t="s">
-        <v>710</v>
-      </c>
-      <c r="B356" s="0" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="0" t="s">
-        <v>712</v>
-      </c>
-      <c r="B357" s="0" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="0" t="s">
-        <v>714</v>
-      </c>
-      <c r="B358" s="0" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" s="0" t="s">
-        <v>716</v>
-      </c>
-      <c r="B359" s="0" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" s="0" t="s">
-        <v>718</v>
-      </c>
-      <c r="B360" s="0" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="0" t="s">
-        <v>720</v>
-      </c>
-      <c r="B361" s="0" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="0" t="s">
-        <v>722</v>
-      </c>
-      <c r="B362" s="0" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="0" t="s">
-        <v>724</v>
-      </c>
-      <c r="B363" s="0" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" s="0" t="s">
-        <v>726</v>
-      </c>
-      <c r="B364" s="0" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" s="0" t="s">
-        <v>728</v>
-      </c>
-      <c r="B365" s="0" t="s">
-        <v>729</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="0" t="s">
-        <v>730</v>
-      </c>
-      <c r="B366" s="0" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="0" t="s">
-        <v>732</v>
-      </c>
-      <c r="B367" s="0" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="0" t="s">
-        <v>734</v>
-      </c>
-      <c r="B368" s="0" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" s="0" t="s">
-        <v>736</v>
-      </c>
-      <c r="B369" s="0" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" s="0" t="s">
-        <v>738</v>
-      </c>
-      <c r="B370" s="0" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="0" t="s">
-        <v>740</v>
-      </c>
-      <c r="B371" s="0" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="0" t="s">
-        <v>742</v>
-      </c>
-      <c r="B372" s="0" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="0" t="s">
-        <v>744</v>
-      </c>
-      <c r="B373" s="0" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" s="0" t="s">
-        <v>746</v>
-      </c>
-      <c r="B374" s="0" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" s="0" t="s">
-        <v>748</v>
-      </c>
-      <c r="B375" s="0" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="0" t="s">
-        <v>750</v>
-      </c>
-      <c r="B376" s="0" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="0" t="s">
-        <v>752</v>
-      </c>
-      <c r="B377" s="0" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="0" t="s">
-        <v>754</v>
-      </c>
-      <c r="B378" s="0" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" s="0" t="s">
-        <v>756</v>
-      </c>
-      <c r="B379" s="0" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" s="0" t="s">
-        <v>758</v>
-      </c>
-      <c r="B380" s="0" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="0" t="s">
-        <v>760</v>
-      </c>
-      <c r="B381" s="0" t="s">
-        <v>761</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="0" t="s">
-        <v>762</v>
-      </c>
-      <c r="B382" s="0" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="0" t="s">
-        <v>764</v>
-      </c>
-      <c r="B383" s="0" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" s="0" t="s">
-        <v>766</v>
-      </c>
-      <c r="B384" s="0" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" s="0" t="s">
-        <v>768</v>
-      </c>
-      <c r="B385" s="0" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="0" t="s">
-        <v>770</v>
-      </c>
-      <c r="B386" s="0" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="0" t="s">
-        <v>772</v>
-      </c>
-      <c r="B387" s="0" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="0" t="s">
-        <v>774</v>
-      </c>
-      <c r="B388" s="0" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" s="0" t="s">
-        <v>776</v>
-      </c>
-      <c r="B389" s="0" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" s="0" t="s">
-        <v>778</v>
-      </c>
-      <c r="B390" s="0" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="0" t="s">
-        <v>780</v>
-      </c>
-      <c r="B391" s="0" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="0" t="s">
-        <v>782</v>
-      </c>
-      <c r="B392" s="0" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="0" t="s">
-        <v>784</v>
-      </c>
-      <c r="B393" s="0" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" s="0" t="s">
-        <v>786</v>
-      </c>
-      <c r="B394" s="0" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" s="0" t="s">
-        <v>788</v>
-      </c>
-      <c r="B395" s="0" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="0" t="s">
-        <v>790</v>
-      </c>
-      <c r="B396" s="0" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="0" t="s">
-        <v>792</v>
-      </c>
-      <c r="B397" s="0" t="s">
-        <v>793</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="0" t="s">
-        <v>794</v>
-      </c>
-      <c r="B398" s="0" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" s="0" t="s">
-        <v>796</v>
-      </c>
-      <c r="B399" s="0" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" s="0" t="s">
-        <v>798</v>
-      </c>
-      <c r="B400" s="0" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="0" t="s">
-        <v>800</v>
-      </c>
-      <c r="B401" s="0" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="0" t="s">
-        <v>802</v>
-      </c>
-      <c r="B402" s="0" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="0" t="s">
-        <v>804</v>
-      </c>
-      <c r="B403" s="0" t="s">
-        <v>805</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" s="0" t="s">
-        <v>806</v>
-      </c>
-      <c r="B404" s="0" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="0" t="s">
-        <v>808</v>
-      </c>
-      <c r="B405" s="0" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="0" t="s">
-        <v>810</v>
-      </c>
-      <c r="B406" s="0" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="0" t="s">
-        <v>812</v>
-      </c>
-      <c r="B407" s="0" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="0" t="s">
-        <v>814</v>
-      </c>
-      <c r="B408" s="0" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="0" t="s">
-        <v>816</v>
-      </c>
-      <c r="B409" s="0" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="0" t="s">
-        <v>818</v>
-      </c>
-      <c r="B410" s="0" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="0" t="s">
-        <v>820</v>
-      </c>
-      <c r="B411" s="0" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="0" t="s">
-        <v>822</v>
-      </c>
-      <c r="B412" s="0" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="0" t="s">
-        <v>824</v>
-      </c>
-      <c r="B413" s="0" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" s="0" t="s">
-        <v>826</v>
-      </c>
-      <c r="B414" s="0" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" s="0" t="s">
-        <v>828</v>
-      </c>
-      <c r="B415" s="0" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="0" t="s">
-        <v>830</v>
-      </c>
-      <c r="B416" s="0" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="0" t="s">
-        <v>832</v>
-      </c>
-      <c r="B417" s="0" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="0" t="s">
-        <v>834</v>
-      </c>
-      <c r="B418" s="0" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" s="0" t="s">
-        <v>836</v>
-      </c>
-      <c r="B419" s="0" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" s="0" t="s">
-        <v>838</v>
-      </c>
-      <c r="B420" s="0" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="0" t="s">
-        <v>840</v>
-      </c>
-      <c r="B421" s="0" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="0" t="s">
-        <v>842</v>
-      </c>
-      <c r="B422" s="0" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="0" t="s">
-        <v>844</v>
-      </c>
-      <c r="B423" s="0" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" s="0" t="s">
-        <v>846</v>
-      </c>
-      <c r="B424" s="0" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" s="0" t="s">
-        <v>848</v>
-      </c>
-      <c r="B425" s="0" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="0" t="s">
-        <v>850</v>
-      </c>
-      <c r="B426" s="0" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="0" t="s">
-        <v>852</v>
-      </c>
-      <c r="B427" s="0" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="0" t="s">
-        <v>854</v>
-      </c>
-      <c r="B428" s="0" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" s="0" t="s">
-        <v>856</v>
-      </c>
-      <c r="B429" s="0" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" s="0" t="s">
-        <v>858</v>
-      </c>
-      <c r="B430" s="0" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="0" t="s">
-        <v>860</v>
-      </c>
-      <c r="B431" s="0" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="0" t="s">
-        <v>862</v>
-      </c>
-      <c r="B432" s="0" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" s="0" t="s">
-        <v>864</v>
-      </c>
-      <c r="B433" s="0" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" s="0" t="s">
-        <v>866</v>
-      </c>
-      <c r="B434" s="0" t="s">
-        <v>867</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" s="0" t="s">
-        <v>868</v>
-      </c>
-      <c r="B435" s="0" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" s="0" t="s">
-        <v>870</v>
-      </c>
-      <c r="B436" s="0" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" s="0" t="s">
-        <v>872</v>
-      </c>
-      <c r="B437" s="0" t="s">
-        <v>873</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="0" t="s">
-        <v>874</v>
-      </c>
-      <c r="B438" s="0" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" s="0" t="s">
-        <v>876</v>
-      </c>
-      <c r="B439" s="0" t="s">
-        <v>877</v>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" s="0" t="s">
-        <v>878</v>
-      </c>
-      <c r="B440" s="0" t="s">
-        <v>879</v>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" s="0" t="s">
-        <v>880</v>
-      </c>
-      <c r="B441" s="0" t="s">
-        <v>881</v>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" s="0" t="s">
-        <v>882</v>
-      </c>
-      <c r="B442" s="0" t="s">
-        <v>883</v>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" s="0" t="s">
-        <v>884</v>
-      </c>
-      <c r="B443" s="0" t="s">
-        <v>885</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="0" t="s">
-        <v>886</v>
-      </c>
-      <c r="B444" s="0" t="s">
-        <v>887</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="0" t="s">
-        <v>888</v>
-      </c>
-      <c r="B445" s="0" t="s">
-        <v>889</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="0" t="s">
-        <v>890</v>
-      </c>
-      <c r="B446" s="0" t="s">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" s="0" t="s">
-        <v>892</v>
-      </c>
-      <c r="B447" s="0" t="s">
-        <v>893</v>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" s="0" t="s">
-        <v>894</v>
-      </c>
-      <c r="B448" s="0" t="s">
-        <v>895</v>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" s="0" t="s">
-        <v>896</v>
-      </c>
-      <c r="B449" s="0" t="s">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="0" t="s">
-        <v>898</v>
-      </c>
-      <c r="B450" s="0" t="s">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" s="0" t="s">
-        <v>900</v>
-      </c>
-      <c r="B451" s="0" t="s">
-        <v>901</v>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" s="0" t="s">
-        <v>902</v>
-      </c>
-      <c r="B452" s="0" t="s">
-        <v>903</v>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" s="0" t="s">
-        <v>904</v>
-      </c>
-      <c r="B453" s="0" t="s">
-        <v>905</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" s="0" t="s">
-        <v>906</v>
-      </c>
-      <c r="B454" s="0" t="s">
-        <v>907</v>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" s="0" t="s">
-        <v>908</v>
-      </c>
-      <c r="B455" s="0" t="s">
-        <v>909</v>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" s="0" t="s">
-        <v>910</v>
-      </c>
-      <c r="B456" s="0" t="s">
-        <v>911</v>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" s="0" t="s">
-        <v>912</v>
-      </c>
-      <c r="B457" s="0" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" s="0" t="s">
-        <v>914</v>
-      </c>
-      <c r="B458" s="0" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" s="0" t="s">
-        <v>916</v>
-      </c>
-      <c r="B459" s="0" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" s="0" t="s">
-        <v>918</v>
-      </c>
-      <c r="B460" s="0" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" s="0" t="s">
-        <v>920</v>
-      </c>
-      <c r="B461" s="0" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" s="0" t="s">
-        <v>922</v>
-      </c>
-      <c r="B462" s="0" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" s="0" t="s">
-        <v>924</v>
-      </c>
-      <c r="B463" s="0" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" s="0" t="s">
-        <v>926</v>
-      </c>
-      <c r="B464" s="0" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" s="0" t="s">
-        <v>928</v>
-      </c>
-      <c r="B465" s="0" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" s="0" t="s">
-        <v>930</v>
-      </c>
-      <c r="B466" s="0" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" s="0" t="s">
-        <v>932</v>
-      </c>
-      <c r="B467" s="0" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" s="0" t="s">
-        <v>934</v>
-      </c>
-      <c r="B468" s="0" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" s="0" t="s">
-        <v>936</v>
-      </c>
-      <c r="B469" s="0" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" s="0" t="s">
-        <v>938</v>
-      </c>
-      <c r="B470" s="0" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" s="0" t="s">
-        <v>940</v>
-      </c>
-      <c r="B471" s="0" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" s="0" t="s">
-        <v>942</v>
-      </c>
-      <c r="B472" s="0" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" s="0" t="s">
-        <v>944</v>
-      </c>
-      <c r="B473" s="0" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" s="0" t="s">
-        <v>946</v>
-      </c>
-      <c r="B474" s="0" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" s="0" t="s">
-        <v>948</v>
-      </c>
-      <c r="B475" s="0" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" s="0" t="s">
-        <v>950</v>
-      </c>
-      <c r="B476" s="0" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" s="0" t="s">
-        <v>952</v>
-      </c>
-      <c r="B477" s="0" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" s="0" t="s">
-        <v>954</v>
-      </c>
-      <c r="B478" s="0" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" s="0" t="s">
-        <v>956</v>
-      </c>
-      <c r="B479" s="0" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" s="0" t="s">
-        <v>958</v>
-      </c>
-      <c r="B480" s="0" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" s="0" t="s">
-        <v>960</v>
-      </c>
-      <c r="B481" s="0" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" s="0" t="s">
-        <v>962</v>
-      </c>
-      <c r="B482" s="0" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" s="0" t="s">
-        <v>964</v>
-      </c>
-      <c r="B483" s="0" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" s="0" t="s">
-        <v>966</v>
-      </c>
-      <c r="B484" s="0" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" s="0" t="s">
-        <v>968</v>
-      </c>
-      <c r="B485" s="0" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" s="0" t="s">
-        <v>970</v>
-      </c>
-      <c r="B486" s="0" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" s="0" t="s">
-        <v>972</v>
-      </c>
-      <c r="B487" s="0" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" s="0" t="s">
-        <v>974</v>
-      </c>
-      <c r="B488" s="0" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" s="0" t="s">
-        <v>976</v>
-      </c>
-      <c r="B489" s="0" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" s="0" t="s">
-        <v>978</v>
-      </c>
-      <c r="B490" s="0" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" s="0" t="s">
-        <v>980</v>
-      </c>
-      <c r="B491" s="0" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" s="0" t="s">
-        <v>982</v>
-      </c>
-      <c r="B492" s="0" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" s="0" t="s">
-        <v>984</v>
-      </c>
-      <c r="B493" s="0" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" s="0" t="s">
-        <v>986</v>
-      </c>
-      <c r="B494" s="0" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" s="0" t="s">
-        <v>988</v>
-      </c>
-      <c r="B495" s="0" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" s="0" t="s">
-        <v>990</v>
-      </c>
-      <c r="B496" s="0" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" s="0" t="s">
-        <v>992</v>
-      </c>
-      <c r="B497" s="0" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" s="0" t="s">
-        <v>994</v>
-      </c>
-      <c r="B498" s="0" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="0" t="s">
-        <v>996</v>
-      </c>
-      <c r="B499" s="0" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" s="0" t="s">
-        <v>998</v>
-      </c>
-      <c r="B500" s="0" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" s="0" t="s">
-        <v>1000</v>
-      </c>
-      <c r="B501" s="0" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" s="0" t="s">
-        <v>1002</v>
-      </c>
-      <c r="B502" s="0" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" s="0" t="s">
-        <v>1004</v>
-      </c>
-      <c r="B503" s="0" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" s="0" t="s">
-        <v>1006</v>
-      </c>
-      <c r="B504" s="0" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" s="0" t="s">
-        <v>1008</v>
-      </c>
-      <c r="B505" s="0" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" s="0" t="s">
-        <v>1010</v>
-      </c>
-      <c r="B506" s="0" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" s="0" t="s">
-        <v>1012</v>
-      </c>
-      <c r="B507" s="0" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" s="0" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B508" s="0" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" s="0" t="s">
-        <v>1016</v>
-      </c>
-      <c r="B509" s="0" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" s="0" t="s">
-        <v>1018</v>
-      </c>
-      <c r="B510" s="0" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" s="0" t="s">
-        <v>1020</v>
-      </c>
-      <c r="B511" s="0" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" s="0" t="s">
-        <v>1022</v>
-      </c>
-      <c r="B512" s="0" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" s="0" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B513" s="0" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" s="0" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B514" s="0" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" s="0" t="s">
-        <v>1028</v>
-      </c>
-      <c r="B515" s="0" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" s="0" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B516" s="0" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" s="0" t="s">
-        <v>1032</v>
-      </c>
-      <c r="B517" s="0" t="s">
-        <v>1033</v>
-      </c>
-    </row>
   </sheetData>
   <headerFooter/>
 </worksheet>
